--- a/supp_data/tcga_sig_sig_all_metrics_report.xlsx
+++ b/supp_data/tcga_sig_sig_all_metrics_report.xlsx
@@ -49,6 +49,9 @@
     <t xml:space="preserve">SBS29</t>
   </si>
   <si>
+    <t xml:space="preserve">SBS30</t>
+  </si>
+  <si>
     <t xml:space="preserve">SBS5</t>
   </si>
   <si>
@@ -70,9 +73,6 @@
     <t xml:space="preserve">SBS19</t>
   </si>
   <si>
-    <t xml:space="preserve">SBS30</t>
-  </si>
-  <si>
     <t xml:space="preserve">SBS40</t>
   </si>
   <si>
@@ -82,10 +82,10 @@
     <t xml:space="preserve">SBS28</t>
   </si>
   <si>
-    <t xml:space="preserve">SBS17</t>
+    <t xml:space="preserve">PolH</t>
   </si>
   <si>
-    <t xml:space="preserve">PolH</t>
+    <t xml:space="preserve">SBS17</t>
   </si>
   <si>
     <t xml:space="preserve">SBS16</t>
@@ -100,6 +100,9 @@
     <t xml:space="preserve">UV</t>
   </si>
   <si>
+    <t xml:space="preserve">AA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chemo</t>
   </si>
   <si>
@@ -110,9 +113,6 @@
   </si>
   <si>
     <t xml:space="preserve">MUTYH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AA</t>
   </si>
 </sst>
 </file>
@@ -448,8 +448,8 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="K1" t="s">
-        <v>9</v>
+      <c r="L1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2">
@@ -477,29 +477,35 @@
       <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" t="s">
-        <v>1</v>
+      <c r="I2" t="s">
+        <v>9</v>
       </c>
       <c r="L2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" t="s">
         <v>4</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>5</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>7</v>
       </c>
-      <c r="R2" t="s">
-        <v>8</v>
+      <c r="S2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -520,31 +526,37 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.460812213955697</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3"/>
-      <c r="M3" t="n">
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3"/>
+      <c r="N3" t="n">
         <v>0.019</v>
       </c>
-      <c r="N3" t="n">
-        <v>1</v>
-      </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -555,7 +567,7 @@
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.214988721822139</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -564,29 +576,35 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.248729211585896</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4"/>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>3</v>
+      </c>
       <c r="M4"/>
-      <c r="N4" t="n">
-        <v>1</v>
-      </c>
+      <c r="N4"/>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0.023</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
       </c>
       <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
         <v>0.026</v>
       </c>
-      <c r="R4" t="n">
+      <c r="T4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -598,7 +616,7 @@
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.021877887655994</v>
       </c>
       <c r="F5" t="n">
         <v>0.248698096791733</v>
@@ -609,22 +627,28 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="K5" t="s">
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
         <v>4</v>
       </c>
-      <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
+      <c r="O5"/>
       <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>0.03</v>
       </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
       <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -637,28 +661,34 @@
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.00948835552779976</v>
       </c>
       <c r="G6" t="n">
+        <v>0.00617841484242218</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.272905844131691</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
         <v>5</v>
       </c>
-      <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
       <c r="O6"/>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
+      <c r="P6"/>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -675,20 +705,26 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0.179170053940526</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>6</v>
       </c>
-      <c r="L7"/>
       <c r="M7"/>
       <c r="N7"/>
       <c r="O7"/>
       <c r="P7"/>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q7"/>
       <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -705,16 +741,22 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="K8" t="s">
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
         <v>7</v>
       </c>
-      <c r="L8"/>
       <c r="M8"/>
       <c r="N8"/>
       <c r="O8"/>
       <c r="P8"/>
       <c r="Q8"/>
-      <c r="R8" t="n">
+      <c r="R8"/>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -729,91 +771,95 @@
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9"/>
-      <c r="K9" t="s">
-        <v>8</v>
-      </c>
-      <c r="L9"/>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>8</v>
+      </c>
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9"/>
       <c r="P9"/>
       <c r="Q9"/>
       <c r="R9"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="S9"/>
+      <c r="T9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="L10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" t="s">
-        <v>6</v>
-      </c>
-      <c r="L14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15"/>
-      <c r="C15" t="n">
-        <v>-4.95643580551695</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
       </c>
       <c r="H15" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15"/>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16"/>
-      <c r="C16"/>
+      <c r="C16" t="n">
+        <v>-4.95643580551695</v>
+      </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
@@ -821,10 +867,12 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I16"/>
-      <c r="J16"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="n">
         <v>1</v>
       </c>
@@ -834,355 +882,329 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
-      <c r="D17"/>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
       <c r="E17" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I17"/>
       <c r="J17"/>
-      <c r="K17"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
-      <c r="E18"/>
+      <c r="E18" t="n">
+        <v>10</v>
+      </c>
       <c r="H18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
-      <c r="L18"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
         <v>9</v>
       </c>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="H19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>1</v>
-      </c>
-      <c r="H23" t="s">
-        <v>2</v>
-      </c>
-      <c r="I23" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24"/>
-      <c r="C24" t="n">
-        <v>-0.294681033259885</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.364067266764069</v>
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
       </c>
       <c r="G24" t="s">
-        <v>2</v>
-      </c>
-      <c r="H24"/>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25"/>
-      <c r="C25"/>
+      <c r="C25" t="n">
+        <v>-0.294681033259885</v>
+      </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.364067266764069</v>
       </c>
       <c r="G25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H25"/>
-      <c r="I25"/>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B26"/>
       <c r="C26"/>
-      <c r="D26"/>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
       <c r="G26" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H26"/>
       <c r="I26"/>
-      <c r="J26"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>12</v>
-      </c>
-      <c r="M30" t="s">
-        <v>9</v>
-      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="G27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" t="s">
         <v>13</v>
       </c>
-      <c r="G31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H31" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" t="s">
-        <v>7</v>
-      </c>
-      <c r="J31" t="s">
-        <v>8</v>
-      </c>
       <c r="M31" t="s">
-        <v>1</v>
-      </c>
-      <c r="N31" t="s">
-        <v>2</v>
-      </c>
-      <c r="O31" t="s">
-        <v>3</v>
-      </c>
-      <c r="P31" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>5</v>
-      </c>
-      <c r="R31" t="s">
-        <v>13</v>
-      </c>
-      <c r="S31" t="s">
-        <v>6</v>
-      </c>
-      <c r="T31" t="s">
-        <v>14</v>
-      </c>
-      <c r="U31" t="s">
-        <v>7</v>
-      </c>
-      <c r="V31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32"/>
-      <c r="C32" t="n">
-        <v>-0.314952338015916</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.348983937048192</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0.364095748457196</v>
-      </c>
-      <c r="J32" t="n">
-        <v>-0.193936583053055</v>
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" t="s">
+        <v>9</v>
       </c>
       <c r="M32" t="s">
-        <v>2</v>
-      </c>
-      <c r="N32"/>
-      <c r="O32" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0.025</v>
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>2</v>
+      </c>
+      <c r="O32" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" t="s">
+        <v>14</v>
+      </c>
+      <c r="S32" t="s">
+        <v>6</v>
+      </c>
+      <c r="T32" t="s">
+        <v>7</v>
+      </c>
+      <c r="U32" t="s">
+        <v>8</v>
+      </c>
+      <c r="V32" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33"/>
-      <c r="C33"/>
+      <c r="C33" t="n">
+        <v>-0.314952338015916</v>
+      </c>
       <c r="D33" t="n">
-        <v>-0.362076285614441</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.277677289672004</v>
+        <v>0.348983937048192</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.401018098416783</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.20346845097799</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>0.364095748457196</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>-0.193936583053055</v>
       </c>
       <c r="M33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N33"/>
-      <c r="O33"/>
+      <c r="O33" t="n">
+        <v>0.016</v>
+      </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.017</v>
+        <v>0.004</v>
       </c>
       <c r="R33" t="n">
         <v>1</v>
       </c>
       <c r="S33" t="n">
-        <v>0.005</v>
+        <v>1</v>
       </c>
       <c r="T33" t="n">
-        <v>0.004</v>
+        <v>1</v>
       </c>
       <c r="U33" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="V33" t="n">
-        <v>1</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34"/>
       <c r="C34"/>
-      <c r="D34"/>
+      <c r="D34" t="n">
+        <v>-0.362076285614441</v>
+      </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>-0.277677289672004</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>-0.401018098416783</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>-0.20346845097799</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.398558622234158</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N34"/>
       <c r="O34"/>
-      <c r="P34"/>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
       <c r="Q34" t="n">
-        <v>1</v>
+        <v>0.017</v>
       </c>
       <c r="R34" t="n">
         <v>1</v>
       </c>
       <c r="S34" t="n">
-        <v>1</v>
+        <v>0.005</v>
       </c>
       <c r="T34" t="n">
-        <v>1</v>
+        <v>0.004</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34" t="n">
         <v>1</v>
@@ -1190,12 +1212,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35"/>
-      <c r="E35"/>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
@@ -1206,18 +1230,20 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.360017182784373</v>
+        <v>-0.398558622234158</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N35"/>
       <c r="O35"/>
       <c r="P35"/>
-      <c r="Q35"/>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
       <c r="R35" t="n">
         <v>1</v>
       </c>
@@ -1228,7 +1254,7 @@
         <v>1</v>
       </c>
       <c r="U35" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>1</v>
@@ -1236,41 +1262,45 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B36"/>
       <c r="C36"/>
       <c r="D36"/>
       <c r="E36"/>
-      <c r="F36"/>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.237806640670006</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>0.360017182784373</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N36"/>
       <c r="O36"/>
       <c r="P36"/>
       <c r="Q36"/>
-      <c r="R36"/>
+      <c r="R36" t="n">
+        <v>1</v>
+      </c>
       <c r="S36" t="n">
         <v>1</v>
       </c>
       <c r="T36" t="n">
+        <v>1</v>
+      </c>
+      <c r="U36" t="n">
         <v>0.002</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1</v>
       </c>
       <c r="V36" t="n">
         <v>1</v>
@@ -1278,45 +1308,49 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
       <c r="F37"/>
-      <c r="G37"/>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>0.237806640670006</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.415650931180151</v>
+        <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N37"/>
       <c r="O37"/>
       <c r="P37"/>
       <c r="Q37"/>
       <c r="R37"/>
-      <c r="S37"/>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
       <c r="T37" t="n">
-        <v>1</v>
+        <v>0.002</v>
       </c>
       <c r="U37" t="n">
         <v>1</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B38"/>
       <c r="C38"/>
@@ -1324,15 +1358,17 @@
       <c r="E38"/>
       <c r="F38"/>
       <c r="G38"/>
-      <c r="H38"/>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>0.415650931180151</v>
       </c>
       <c r="M38" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="N38"/>
       <c r="O38"/>
@@ -1340,12 +1376,14 @@
       <c r="Q38"/>
       <c r="R38"/>
       <c r="S38"/>
-      <c r="T38"/>
+      <c r="T38" t="n">
+        <v>1</v>
+      </c>
       <c r="U38" t="n">
         <v>1</v>
       </c>
       <c r="V38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1359,7 +1397,9 @@
       <c r="F39"/>
       <c r="G39"/>
       <c r="H39"/>
-      <c r="I39"/>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
@@ -1373,7 +1413,9 @@
       <c r="R39"/>
       <c r="S39"/>
       <c r="T39"/>
-      <c r="U39"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
       <c r="V39" t="n">
         <v>1</v>
       </c>
@@ -1390,7 +1432,9 @@
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40"/>
-      <c r="J40"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="M40" t="s">
         <v>8</v>
       </c>
@@ -1402,7 +1446,35 @@
       <c r="S40"/>
       <c r="T40"/>
       <c r="U40"/>
-      <c r="V40"/>
+      <c r="V40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="M41" t="s">
+        <v>9</v>
+      </c>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1423,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">
@@ -1437,7 +1509,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
@@ -1449,7 +1521,7 @@
         <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1494,13 +1566,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5"/>
       <c r="G5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -1508,10 +1580,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1522,7 +1594,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
         <v>1</v>
@@ -1531,7 +1603,7 @@
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1552,22 +1624,22 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12"/>
       <c r="C12"/>
       <c r="F12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1581,16 +1653,16 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J17" t="s">
         <v>1</v>
@@ -1602,16 +1674,16 @@
         <v>3</v>
       </c>
       <c r="M17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N17" t="s">
         <v>15</v>
       </c>
       <c r="O17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -1692,7 +1764,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20"/>
       <c r="C20"/>
@@ -1707,7 +1779,7 @@
         <v>0.48583175994366</v>
       </c>
       <c r="J20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K20"/>
       <c r="L20"/>
@@ -1752,7 +1824,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B22"/>
       <c r="C22"/>
@@ -1763,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K22"/>
       <c r="L22"/>
@@ -1776,7 +1848,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B23"/>
       <c r="C23"/>
@@ -1785,7 +1857,7 @@
       <c r="F23"/>
       <c r="G23"/>
       <c r="J23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K23"/>
       <c r="L23"/>
@@ -1813,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">
@@ -1827,7 +1899,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
         <v>23</v>
@@ -1842,7 +1914,7 @@
         <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L2" t="s">
         <v>23</v>
@@ -1902,7 +1974,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
@@ -1911,7 +1983,7 @@
         <v>0.488484458219776</v>
       </c>
       <c r="H5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
@@ -1938,10 +2010,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
         <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1952,7 +2024,7 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
         <v>1</v>
@@ -1961,7 +2033,7 @@
         <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1982,22 +2054,22 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13"/>
       <c r="C13"/>
       <c r="F13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -2011,7 +2083,7 @@
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
         <v>23</v>
@@ -2026,7 +2098,7 @@
         <v>15</v>
       </c>
       <c r="K18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L18" t="s">
         <v>23</v>
@@ -2086,7 +2158,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B21"/>
       <c r="C21"/>
@@ -2095,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I21"/>
       <c r="J21"/>
@@ -2139,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">
@@ -2150,13 +2222,13 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -2168,13 +2240,13 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N2" t="s">
         <v>23</v>
@@ -2186,13 +2258,13 @@
       </c>
       <c r="B3"/>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.0947887700182391</v>
       </c>
       <c r="D3" t="n">
         <v>0.345355073656823</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.411656307209995</v>
       </c>
       <c r="F3" t="n">
         <v>0.436461499478607</v>
@@ -2202,13 +2274,13 @@
       </c>
       <c r="J3"/>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0.042</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -2216,7 +2288,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4"/>
       <c r="C4"/>
@@ -2230,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
@@ -2246,7 +2318,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
@@ -2258,7 +2330,7 @@
         <v>0.485068046202324</v>
       </c>
       <c r="I5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
@@ -2272,7 +2344,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
@@ -2282,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J6"/>
       <c r="K6"/>
@@ -2312,10 +2384,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" t="s">
         <v>10</v>
-      </c>
-      <c r="I11" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -2326,13 +2398,13 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
         <v>23</v>
@@ -2344,13 +2416,13 @@
         <v>2</v>
       </c>
       <c r="K12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N12" t="s">
         <v>23</v>
@@ -2392,7 +2464,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -2406,7 +2478,7 @@
         <v>-3.12803908848056</v>
       </c>
       <c r="I14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J14"/>
       <c r="K14"/>
@@ -2422,7 +2494,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15"/>
       <c r="C15"/>
@@ -2434,7 +2506,7 @@
         <v>2.17775605433683</v>
       </c>
       <c r="I15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J15"/>
       <c r="K15"/>
@@ -2448,7 +2520,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B16"/>
       <c r="C16"/>
@@ -2458,7 +2530,7 @@
         <v>-10</v>
       </c>
       <c r="I16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J16"/>
       <c r="K16"/>
@@ -2488,10 +2560,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="H21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -2499,46 +2571,58 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
         <v>23</v>
       </c>
-      <c r="G22" t="s">
-        <v>1</v>
-      </c>
       <c r="H22" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="J22" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23"/>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
         <v>0.885234512241182</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23"/>
-      <c r="I23" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23"/>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
         <v>0.027</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2549,186 +2633,174 @@
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24" t="n">
-        <v>0.690032160052633</v>
-      </c>
-      <c r="G24" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24"/>
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.317024232760931</v>
+      </c>
+      <c r="H24" t="s">
+        <v>8</v>
+      </c>
       <c r="I24"/>
-      <c r="J24" t="n">
-        <v>0</v>
+      <c r="J24"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.025</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
-      <c r="G25" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25"/>
+      <c r="E25" t="n">
+        <v>0.690032160052633</v>
+      </c>
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
       <c r="I25"/>
       <c r="J25"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>12</v>
-      </c>
-      <c r="K29" t="s">
-        <v>9</v>
-      </c>
+      <c r="K25"/>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="H26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K30" t="s">
-        <v>1</v>
-      </c>
-      <c r="L30" t="s">
-        <v>2</v>
-      </c>
-      <c r="M30" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" t="s">
-        <v>27</v>
-      </c>
-      <c r="O30" t="s">
-        <v>26</v>
-      </c>
-      <c r="P30" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>8</v>
-      </c>
-      <c r="R30" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31"/>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>-0.327802436905352</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.347881939916848</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-0.557375002468441</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.511154571893659</v>
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" t="s">
+        <v>23</v>
       </c>
       <c r="K31" t="s">
-        <v>2</v>
-      </c>
-      <c r="L31"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="n">
-        <v>1</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0.00700000000000001</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0.00900000000000001</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0.002</v>
+        <v>1</v>
+      </c>
+      <c r="L31" t="s">
+        <v>2</v>
+      </c>
+      <c r="M31" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>28</v>
+      </c>
+      <c r="O31" t="s">
+        <v>27</v>
+      </c>
+      <c r="P31" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>9</v>
+      </c>
+      <c r="R31" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B32"/>
-      <c r="C32"/>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.140491162567536</v>
+        <v>-0.327802436905352</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>0.347881939916848</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-0.557375002468441</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.511154571893659</v>
       </c>
       <c r="K32" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L32"/>
-      <c r="M32"/>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
       <c r="N32" t="n">
         <v>1</v>
       </c>
       <c r="O32" t="n">
-        <v>0.03</v>
+        <v>0.00700000000000001</v>
       </c>
       <c r="P32" t="n">
-        <v>1</v>
+        <v>0.00900000000000001</v>
       </c>
       <c r="Q32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>1</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B33"/>
       <c r="C33"/>
-      <c r="D33"/>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
       <c r="E33" t="n">
-        <v>0.203866207118885</v>
+        <v>0.140491162567536</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -2740,13 +2812,15 @@
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="L33"/>
       <c r="M33"/>
-      <c r="N33"/>
+      <c r="N33" t="n">
+        <v>1</v>
+      </c>
       <c r="O33" t="n">
-        <v>0.018</v>
+        <v>0.03</v>
       </c>
       <c r="P33" t="n">
         <v>1</v>
@@ -2760,66 +2834,74 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
-      <c r="E34"/>
+      <c r="E34" t="n">
+        <v>0.203866207118885</v>
+      </c>
       <c r="F34" t="n">
-        <v>-0.275526422130802</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.453956159322448</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.28361893979214</v>
+        <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L34"/>
       <c r="M34"/>
       <c r="N34"/>
-      <c r="O34"/>
+      <c r="O34" t="n">
+        <v>0.018</v>
+      </c>
       <c r="P34" t="n">
-        <v>0.00900000000000001</v>
+        <v>1</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" t="n">
-        <v>0.005</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35"/>
-      <c r="F35"/>
+      <c r="F35" t="n">
+        <v>-0.275526422130802</v>
+      </c>
       <c r="G35" t="n">
-        <v>-0.376985955107183</v>
+        <v>0.453956159322448</v>
       </c>
       <c r="H35" t="n">
-        <v>0.478581640770682</v>
+        <v>-0.28361893979214</v>
       </c>
       <c r="K35" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="L35"/>
       <c r="M35"/>
       <c r="N35"/>
       <c r="O35"/>
-      <c r="P35"/>
+      <c r="P35" t="n">
+        <v>0.00900000000000001</v>
+      </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="36">
@@ -2831,9 +2913,11 @@
       <c r="D36"/>
       <c r="E36"/>
       <c r="F36"/>
-      <c r="G36"/>
+      <c r="G36" t="n">
+        <v>-0.376985955107183</v>
+      </c>
       <c r="H36" t="n">
-        <v>-0.460441373719169</v>
+        <v>0.478581640770682</v>
       </c>
       <c r="K36" t="s">
         <v>8</v>
@@ -2843,14 +2927,16 @@
       <c r="N36"/>
       <c r="O36"/>
       <c r="P36"/>
-      <c r="Q36"/>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B37"/>
       <c r="C37"/>
@@ -2858,9 +2944,11 @@
       <c r="E37"/>
       <c r="F37"/>
       <c r="G37"/>
-      <c r="H37"/>
+      <c r="H37" t="n">
+        <v>-0.460441373719169</v>
+      </c>
       <c r="K37" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="L37"/>
       <c r="M37"/>
@@ -2868,7 +2956,31 @@
       <c r="O37"/>
       <c r="P37"/>
       <c r="Q37"/>
-      <c r="R37"/>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="K38" t="s">
+        <v>23</v>
+      </c>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2889,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">
@@ -2906,16 +3018,16 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K2" t="s">
         <v>1</v>
@@ -2930,16 +3042,16 @@
         <v>5</v>
       </c>
       <c r="O2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P2" t="s">
         <v>15</v>
       </c>
       <c r="Q2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2948,16 +3060,16 @@
       </c>
       <c r="B3"/>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.215504574413978</v>
       </c>
       <c r="D3" t="n">
         <v>1.12438640450854</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.318287998954547</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.235408262656873</v>
       </c>
       <c r="G3" t="n">
         <v>0.900362670637393</v>
@@ -2970,16 +3082,16 @@
       </c>
       <c r="L3"/>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0.008</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0.006</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -2995,7 +3107,7 @@
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.145183924029018</v>
       </c>
       <c r="E4" t="n">
         <v>0.422135941730518</v>
@@ -3004,7 +3116,7 @@
         <v>0.41561873635647</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.232371690132737</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -3015,7 +3127,7 @@
       <c r="L4"/>
       <c r="M4"/>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0.035</v>
@@ -3024,7 +3136,7 @@
         <v>0.001</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>0.046</v>
       </c>
       <c r="R4" t="n">
         <v>1</v>
@@ -3038,10 +3150,10 @@
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.265106023099863</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.219404841089469</v>
       </c>
       <c r="G5" t="n">
         <v>1.00035149359012</v>
@@ -3056,10 +3168,10 @@
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -3070,7 +3182,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
@@ -3083,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.0883389870693253</v>
       </c>
       <c r="K6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L6"/>
       <c r="M6"/>
@@ -3099,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="7">
@@ -3134,7 +3246,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8"/>
       <c r="C8"/>
@@ -3146,7 +3258,7 @@
         <v>0.224448238478451</v>
       </c>
       <c r="K8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L8"/>
       <c r="M8"/>
@@ -3160,7 +3272,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9"/>
       <c r="C9"/>
@@ -3170,7 +3282,7 @@
       <c r="G9"/>
       <c r="H9"/>
       <c r="K9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L9"/>
       <c r="M9"/>
@@ -3182,10 +3294,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" t="s">
         <v>10</v>
-      </c>
-      <c r="J13" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -3199,16 +3311,16 @@
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J14" t="s">
         <v>1</v>
@@ -3220,16 +3332,16 @@
         <v>5</v>
       </c>
       <c r="M14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N14" t="s">
         <v>15</v>
       </c>
       <c r="O14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -3310,7 +3422,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -3325,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K17"/>
       <c r="L17"/>
@@ -3370,7 +3482,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B19"/>
       <c r="C19"/>
@@ -3381,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K19"/>
       <c r="L19"/>
@@ -3394,7 +3506,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B20"/>
       <c r="C20"/>
@@ -3403,7 +3515,7 @@
       <c r="F20"/>
       <c r="G20"/>
       <c r="J20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K20"/>
       <c r="L20"/>
@@ -3414,10 +3526,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -3434,10 +3546,10 @@
         <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I25" t="s">
         <v>1</v>
@@ -3452,10 +3564,10 @@
         <v>16</v>
       </c>
       <c r="M25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -3550,7 +3662,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B29"/>
       <c r="C29"/>
@@ -3560,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J29"/>
       <c r="K29"/>
@@ -3572,7 +3684,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B30"/>
       <c r="C30"/>
@@ -3580,7 +3692,7 @@
       <c r="E30"/>
       <c r="F30"/>
       <c r="I30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J30"/>
       <c r="K30"/>
@@ -3590,10 +3702,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -3610,16 +3722,16 @@
         <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F35" t="s">
         <v>15</v>
       </c>
       <c r="G35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K35" t="s">
         <v>1</v>
@@ -3634,16 +3746,16 @@
         <v>5</v>
       </c>
       <c r="O35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P35" t="s">
         <v>15</v>
       </c>
       <c r="Q35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
@@ -3774,7 +3886,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B39"/>
       <c r="C39"/>
@@ -3790,7 +3902,7 @@
         <v>-0.153377114576948</v>
       </c>
       <c r="K39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L39"/>
       <c r="M39"/>
@@ -3838,7 +3950,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B41"/>
       <c r="C41"/>
@@ -3850,7 +3962,7 @@
         <v>0.189796644061318</v>
       </c>
       <c r="K41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L41"/>
       <c r="M41"/>
@@ -3864,7 +3976,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B42"/>
       <c r="C42"/>
@@ -3874,7 +3986,7 @@
       <c r="G42"/>
       <c r="H42"/>
       <c r="K42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L42"/>
       <c r="M42"/>
@@ -3902,8 +4014,8 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" t="s">
-        <v>9</v>
+      <c r="I1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2">
@@ -3917,25 +4029,31 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
-        <v>1</v>
+      <c r="F2" t="s">
+        <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="M2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3947,22 +4065,28 @@
         <v>0.174197354637338</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.197178387557785</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3"/>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3"/>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3973,41 +4097,53 @@
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4" t="n">
+        <v>0.101070166649831</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.213713557113242</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4"/>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>3</v>
+      </c>
       <c r="J4"/>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
+      <c r="K4"/>
       <c r="L4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5" t="n">
-        <v>0.106105029029972</v>
-      </c>
-      <c r="H5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5"/>
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
       <c r="J5"/>
       <c r="K5"/>
-      <c r="L5" t="n">
-        <v>0.00700000000000001</v>
+      <c r="L5"/>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -4018,129 +4154,109 @@
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6"/>
-      <c r="H6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6"/>
+      <c r="F6" t="n">
+        <v>0.106105029029972</v>
+      </c>
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="M6"/>
+      <c r="N6" t="n">
+        <v>0.00700000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="I7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>1</v>
-      </c>
-      <c r="L11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M11" t="s">
-        <v>2</v>
-      </c>
-      <c r="N11" t="s">
-        <v>3</v>
-      </c>
-      <c r="O11" t="s">
-        <v>4</v>
-      </c>
-      <c r="P11" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>7</v>
-      </c>
-      <c r="R11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12"/>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.186162913120334</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
       </c>
       <c r="K12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L12"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.022</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B13"/>
-      <c r="C13"/>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
       <c r="D13" t="n">
-        <v>0.2588999966212</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.186162913120334</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -4149,18 +4265,20 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.222681408220497</v>
+        <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="L13"/>
-      <c r="M13"/>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0.022</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
@@ -4169,106 +4287,118 @@
         <v>1</v>
       </c>
       <c r="R13" t="n">
-        <v>0.005</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
-      <c r="D14"/>
+      <c r="D14" t="n">
+        <v>0.2588999966212</v>
+      </c>
       <c r="E14" t="n">
-        <v>-0.173935161204358</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.293161984105135</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.18614031126958</v>
+        <v>-0.222681408220497</v>
       </c>
       <c r="K14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14"/>
       <c r="M14"/>
-      <c r="N14"/>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
       <c r="O14" t="n">
-        <v>0.00700000000000001</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
         <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" t="n">
-        <v>0.016</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
-      <c r="E15"/>
+      <c r="E15" t="n">
+        <v>-0.173935161204358</v>
+      </c>
       <c r="F15" t="n">
-        <v>0.21558316893735</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.217950759243123</v>
+        <v>0.293161984105135</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>-0.18614031126958</v>
       </c>
       <c r="K15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L15"/>
       <c r="M15"/>
       <c r="N15"/>
-      <c r="O15"/>
+      <c r="O15" t="n">
+        <v>0.00700000000000001</v>
+      </c>
       <c r="P15" t="n">
-        <v>0.023</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.00900000000000001</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16"/>
-      <c r="F16"/>
+      <c r="F16" t="n">
+        <v>0.21558316893735</v>
+      </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-0.217950759243123</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L16"/>
       <c r="M16"/>
       <c r="N16"/>
       <c r="O16"/>
-      <c r="P16"/>
+      <c r="P16" t="n">
+        <v>0.023</v>
+      </c>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>0.00900000000000001</v>
       </c>
       <c r="R16" t="n">
         <v>1</v>
@@ -4276,26 +4406,30 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17"/>
-      <c r="G17"/>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L17"/>
       <c r="M17"/>
       <c r="N17"/>
       <c r="O17"/>
       <c r="P17"/>
-      <c r="Q17"/>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
       <c r="R17" t="n">
         <v>1</v>
       </c>
@@ -4310,7 +4444,9 @@
       <c r="E18"/>
       <c r="F18"/>
       <c r="G18"/>
-      <c r="H18"/>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="s">
         <v>8</v>
       </c>
@@ -4320,7 +4456,31 @@
       <c r="O18"/>
       <c r="P18"/>
       <c r="Q18"/>
-      <c r="R18"/>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="K19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4341,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">
@@ -4367,7 +4527,7 @@
         <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K2" t="s">
         <v>1</v>
@@ -4391,7 +4551,7 @@
         <v>15</v>
       </c>
       <c r="R2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -4447,13 +4607,13 @@
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.101772758984335</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.027441886365217</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.0139765913820605</v>
       </c>
       <c r="G4" t="n">
         <v>0.275577570335051</v>
@@ -4467,13 +4627,13 @@
       <c r="L4"/>
       <c r="M4"/>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0.002</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0.002</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -4493,10 +4653,10 @@
         <v>0.407098548398134</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.103253340279186</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.0959540456867329</v>
       </c>
       <c r="H5" t="n">
         <v>0.993620180888408</v>
@@ -4511,10 +4671,10 @@
         <v>0.00900000000000001</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0.011</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -4532,7 +4692,7 @@
         <v>0.486985537863126</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.0247693318280956</v>
       </c>
       <c r="H6" t="n">
         <v>0.594978061510612</v>
@@ -4548,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>0.003</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -4612,7 +4772,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9"/>
       <c r="C9"/>
@@ -4622,7 +4782,7 @@
       <c r="G9"/>
       <c r="H9"/>
       <c r="K9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L9"/>
       <c r="M9"/>
@@ -4634,10 +4794,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" t="s">
         <v>10</v>
-      </c>
-      <c r="J13" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -4660,7 +4820,7 @@
         <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J14" t="s">
         <v>1</v>
@@ -4681,7 +4841,7 @@
         <v>15</v>
       </c>
       <c r="P14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -4846,7 +5006,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B20"/>
       <c r="C20"/>
@@ -4855,7 +5015,7 @@
       <c r="F20"/>
       <c r="G20"/>
       <c r="J20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K20"/>
       <c r="L20"/>
@@ -4866,10 +5026,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -4880,7 +5040,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F25" t="s">
         <v>1</v>
@@ -4889,7 +5049,7 @@
         <v>2</v>
       </c>
       <c r="H25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -4910,22 +5070,22 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B27"/>
       <c r="C27"/>
       <c r="F27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G27"/>
       <c r="H27"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -4951,7 +5111,7 @@
         <v>15</v>
       </c>
       <c r="H32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K32" t="s">
         <v>1</v>
@@ -4975,7 +5135,7 @@
         <v>15</v>
       </c>
       <c r="R32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -5196,7 +5356,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B39"/>
       <c r="C39"/>
@@ -5206,7 +5366,7 @@
       <c r="G39"/>
       <c r="H39"/>
       <c r="K39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L39"/>
       <c r="M39"/>
@@ -5235,7 +5395,7 @@
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">
@@ -5249,7 +5409,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
@@ -5261,7 +5421,7 @@
         <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -5306,13 +5466,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5"/>
       <c r="G5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -5320,10 +5480,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
         <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -5376,10 +5536,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -5399,16 +5559,16 @@
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G17" t="s">
         <v>15</v>
       </c>
       <c r="H17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L17" t="s">
         <v>1</v>
@@ -5426,16 +5586,16 @@
         <v>16</v>
       </c>
       <c r="Q17" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="R17" t="s">
         <v>15</v>
       </c>
       <c r="S17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -5624,7 +5784,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B22"/>
       <c r="C22"/>
@@ -5641,7 +5801,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="M22"/>
       <c r="N22"/>
@@ -5692,7 +5852,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B24"/>
       <c r="C24"/>
@@ -5705,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M24"/>
       <c r="N24"/>
@@ -5720,7 +5880,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
@@ -5731,7 +5891,7 @@
       <c r="H25"/>
       <c r="I25"/>
       <c r="L25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M25"/>
       <c r="N25"/>
@@ -5761,7 +5921,7 @@
         <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">
@@ -5778,7 +5938,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" t="s">
         <v>1</v>
@@ -5793,7 +5953,7 @@
         <v>5</v>
       </c>
       <c r="L2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -5870,14 +6030,14 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6"/>
       <c r="H6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -5886,10 +6046,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
         <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -5942,10 +6102,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -5962,7 +6122,7 @@
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H18" t="s">
         <v>1</v>
@@ -5977,7 +6137,7 @@
         <v>5</v>
       </c>
       <c r="L18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -6054,14 +6214,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
       <c r="H22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I22"/>
       <c r="J22"/>
@@ -6070,10 +6230,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -6096,7 +6256,7 @@
         <v>17</v>
       </c>
       <c r="G27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J27" t="s">
         <v>1</v>
@@ -6117,7 +6277,7 @@
         <v>17</v>
       </c>
       <c r="P27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -6282,7 +6442,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B33"/>
       <c r="C33"/>
@@ -6291,7 +6451,7 @@
       <c r="F33"/>
       <c r="G33"/>
       <c r="J33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K33"/>
       <c r="L33"/>
@@ -6318,8 +6478,8 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="M1" t="s">
-        <v>9</v>
+      <c r="N1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2">
@@ -6345,44 +6505,50 @@
         <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" t="s">
-        <v>1</v>
+      <c r="K2" t="s">
+        <v>8</v>
       </c>
       <c r="N2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>5</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>16</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>18</v>
       </c>
-      <c r="T2" t="s">
-        <v>14</v>
-      </c>
       <c r="U2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="V2" t="s">
         <v>7</v>
       </c>
+      <c r="W2" t="s">
+        <v>15</v>
+      </c>
+      <c r="X2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -6390,7 +6556,7 @@
       </c>
       <c r="B3"/>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.0712816298233372</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -6405,40 +6571,46 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.0537930025925016</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>0.852339489072251</v>
       </c>
-      <c r="M3" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3"/>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
+      <c r="N3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3"/>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0.015</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>0.004</v>
       </c>
-      <c r="S3" t="n">
-        <v>1</v>
-      </c>
       <c r="T3" t="n">
         <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0.015</v>
       </c>
       <c r="V3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6452,48 +6624,54 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.015288324005342</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.0765599766713708</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
-      <c r="M4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N4"/>
+      <c r="K4" t="n">
+        <v>0.083168315112669</v>
+      </c>
+      <c r="N4" t="s">
+        <v>3</v>
+      </c>
       <c r="O4"/>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
+      <c r="P4"/>
       <c r="Q4" t="n">
         <v>1</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" t="n">
         <v>0.001</v>
       </c>
-      <c r="T4" t="n">
-        <v>1</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1</v>
-      </c>
       <c r="V4" t="n">
         <v>1</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.001</v>
       </c>
     </row>
     <row r="5">
@@ -6504,46 +6682,52 @@
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.00330845692512291</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.074935118725782</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
+        <v>0.0159151091972281</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0261505425434019</v>
+      </c>
+      <c r="N5" t="s">
         <v>4</v>
       </c>
-      <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q5"/>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" t="n">
         <v>1</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>1</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.001</v>
       </c>
     </row>
     <row r="6">
@@ -6561,34 +6745,40 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.0166411177906693</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
+        <v>0.165180811840397</v>
+      </c>
+      <c r="K6" t="n">
         <v>0.758984510332732</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>5</v>
       </c>
-      <c r="N6"/>
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6"/>
-      <c r="R6" t="n">
+      <c r="R6"/>
+      <c r="S6" t="n">
         <v>0.001</v>
       </c>
-      <c r="S6" t="n">
-        <v>1</v>
-      </c>
       <c r="T6" t="n">
         <v>1</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>0.015</v>
       </c>
       <c r="V6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="X6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6611,19 +6801,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
+        <v>0.0109246484846678</v>
+      </c>
+      <c r="K7" t="n">
         <v>0.107115466035324</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>16</v>
       </c>
-      <c r="N7"/>
       <c r="O7"/>
       <c r="P7"/>
       <c r="Q7"/>
       <c r="R7"/>
-      <c r="S7" t="n">
-        <v>1</v>
-      </c>
+      <c r="S7"/>
       <c r="T7" t="n">
         <v>1</v>
       </c>
@@ -6631,6 +6821,12 @@
         <v>1</v>
       </c>
       <c r="V7" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="X7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6653,28 +6849,34 @@
       <c r="J8" t="n">
         <v>0</v>
       </c>
-      <c r="M8" t="s">
+      <c r="K8" t="n">
+        <v>0.0193592654904779</v>
+      </c>
+      <c r="N8" t="s">
         <v>18</v>
       </c>
-      <c r="N8"/>
       <c r="O8"/>
       <c r="P8"/>
       <c r="Q8"/>
       <c r="R8"/>
       <c r="S8"/>
-      <c r="T8" t="n">
-        <v>1</v>
-      </c>
+      <c r="T8"/>
       <c r="U8" t="n">
         <v>1</v>
       </c>
       <c r="V8" t="n">
         <v>1</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.044</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9"/>
       <c r="C9"/>
@@ -6684,31 +6886,37 @@
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9" t="n">
-        <v>0.0596391008083685</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
-      <c r="M9" t="s">
-        <v>14</v>
-      </c>
-      <c r="N9"/>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>19</v>
+      </c>
       <c r="O9"/>
       <c r="P9"/>
       <c r="Q9"/>
       <c r="R9"/>
       <c r="S9"/>
       <c r="T9"/>
-      <c r="U9" t="n">
-        <v>0.04</v>
-      </c>
+      <c r="U9"/>
       <c r="V9" t="n">
+        <v>1</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B10"/>
       <c r="C10"/>
@@ -6719,12 +6927,14 @@
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10" t="n">
-        <v>0.596358088355732</v>
-      </c>
-      <c r="M10" t="s">
-        <v>15</v>
-      </c>
-      <c r="N10"/>
+        <v>0.0596391008083685</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>7</v>
+      </c>
       <c r="O10"/>
       <c r="P10"/>
       <c r="Q10"/>
@@ -6732,13 +6942,17 @@
       <c r="S10"/>
       <c r="T10"/>
       <c r="U10"/>
-      <c r="V10" t="n">
-        <v>0</v>
+      <c r="V10"/>
+      <c r="W10" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
@@ -6749,10 +6963,12 @@
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11"/>
-      <c r="M11" t="s">
-        <v>7</v>
-      </c>
-      <c r="N11"/>
+      <c r="K11" t="n">
+        <v>0.596358088355732</v>
+      </c>
+      <c r="N11" t="s">
+        <v>15</v>
+      </c>
       <c r="O11"/>
       <c r="P11"/>
       <c r="Q11"/>
@@ -6761,125 +6977,113 @@
       <c r="T11"/>
       <c r="U11"/>
       <c r="V11"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="K15" t="s">
-        <v>9</v>
-      </c>
+      <c r="W11"/>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="N12" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K16" t="s">
-        <v>1</v>
-      </c>
-      <c r="L16" t="s">
-        <v>3</v>
-      </c>
-      <c r="M16" t="s">
-        <v>4</v>
-      </c>
-      <c r="N16" t="s">
-        <v>5</v>
-      </c>
-      <c r="O16" t="s">
-        <v>19</v>
-      </c>
-      <c r="P16" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>15</v>
-      </c>
-      <c r="R16" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17"/>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>3.48693332510986</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1.84714795623621</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" t="s">
+        <v>8</v>
       </c>
       <c r="K17" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" t="s">
+        <v>18</v>
+      </c>
+      <c r="P17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>15</v>
+      </c>
+      <c r="R17" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18"/>
-      <c r="C18"/>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>3.48693332510986</v>
       </c>
       <c r="F18" t="n">
-        <v>4.05671556221175</v>
+        <v>1.84714795623621</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -6888,15 +7092,17 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L18"/>
-      <c r="M18"/>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
       <c r="N18" t="n">
         <v>1</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -6910,37 +7116,41 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19"/>
       <c r="C19"/>
-      <c r="D19"/>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>4.05671556221175</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.33620989376457</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L19"/>
       <c r="M19"/>
-      <c r="N19"/>
+      <c r="N19" t="n">
+        <v>1</v>
+      </c>
       <c r="O19" t="n">
         <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
         <v>1</v>
@@ -6948,33 +7158,37 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
-      <c r="E20"/>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-2.33620989376457</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="L20"/>
       <c r="M20"/>
       <c r="N20"/>
-      <c r="O20"/>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
       <c r="P20" t="n">
         <v>1</v>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>1</v>
@@ -6988,7 +7202,9 @@
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
-      <c r="F21"/>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
@@ -7002,7 +7218,9 @@
       <c r="M21"/>
       <c r="N21"/>
       <c r="O21"/>
-      <c r="P21"/>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
       <c r="Q21" t="n">
         <v>1</v>
       </c>
@@ -7012,33 +7230,37 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
-      <c r="G22"/>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
       <c r="H22" t="n">
-        <v>-4.91590216629701</v>
+        <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L22"/>
       <c r="M22"/>
       <c r="N22"/>
       <c r="O22"/>
       <c r="P22"/>
-      <c r="Q22"/>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B23"/>
       <c r="C23"/>
@@ -7046,9 +7268,11 @@
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23"/>
-      <c r="H23"/>
+      <c r="H23" t="n">
+        <v>-4.91590216629701</v>
+      </c>
       <c r="K23" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="L23"/>
       <c r="M23"/>
@@ -7056,197 +7280,169 @@
       <c r="O23"/>
       <c r="P23"/>
       <c r="Q23"/>
-      <c r="R23"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>12</v>
-      </c>
-      <c r="M27" t="s">
-        <v>9</v>
-      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="K24" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M28" t="s">
-        <v>1</v>
-      </c>
-      <c r="N28" t="s">
-        <v>2</v>
-      </c>
-      <c r="O28" t="s">
-        <v>3</v>
-      </c>
-      <c r="P28" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>5</v>
-      </c>
-      <c r="R28" t="s">
-        <v>16</v>
-      </c>
-      <c r="S28" t="s">
-        <v>19</v>
-      </c>
-      <c r="T28" t="s">
-        <v>18</v>
-      </c>
-      <c r="U28" t="s">
-        <v>15</v>
-      </c>
-      <c r="V28" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29"/>
-      <c r="C29" t="n">
-        <v>-0.213356640566401</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.527442474325815</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.351127916957057</v>
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" t="s">
+        <v>8</v>
       </c>
       <c r="M29" t="s">
-        <v>2</v>
-      </c>
-      <c r="N29"/>
-      <c r="O29" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>2</v>
+      </c>
+      <c r="O29" t="s">
+        <v>3</v>
+      </c>
+      <c r="P29" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" t="s">
+        <v>16</v>
+      </c>
+      <c r="S29" t="s">
+        <v>18</v>
+      </c>
+      <c r="T29" t="s">
+        <v>19</v>
+      </c>
+      <c r="U29" t="s">
+        <v>15</v>
+      </c>
+      <c r="V29" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30"/>
-      <c r="C30"/>
+      <c r="C30" t="n">
+        <v>-0.213356640566401</v>
+      </c>
       <c r="D30" t="n">
-        <v>0.177160177936926</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.527442474325815</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.215736667436301</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.194452029418745</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.351127916957057</v>
       </c>
       <c r="M30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N30"/>
-      <c r="O30"/>
+      <c r="O30" t="n">
+        <v>0.005</v>
+      </c>
       <c r="P30" t="n">
-        <v>0.013</v>
+        <v>1</v>
       </c>
       <c r="Q30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>1</v>
       </c>
       <c r="S30" t="n">
-        <v>0.026</v>
+        <v>1</v>
       </c>
       <c r="T30" t="n">
-        <v>0.003</v>
+        <v>1</v>
       </c>
       <c r="U30" t="n">
         <v>1</v>
       </c>
       <c r="V30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
-      <c r="D31"/>
+      <c r="D31" t="n">
+        <v>0.177160177936926</v>
+      </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
@@ -7254,10 +7450,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.178715830610555</v>
+        <v>0.215736667436301</v>
       </c>
       <c r="H31" t="n">
-        <v>0.366322143164943</v>
+        <v>0.194452029418745</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -7266,11 +7462,13 @@
         <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N31"/>
       <c r="O31"/>
-      <c r="P31"/>
+      <c r="P31" t="n">
+        <v>0.013</v>
+      </c>
       <c r="Q31" t="n">
         <v>1</v>
       </c>
@@ -7278,7 +7476,7 @@
         <v>1</v>
       </c>
       <c r="S31" t="n">
-        <v>0.019</v>
+        <v>0.026</v>
       </c>
       <c r="T31" t="n">
         <v>0.003</v>
@@ -7292,59 +7490,65 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
-      <c r="E32"/>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.178715830610555</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.366322143164943</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.325583622373633</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.571130866267409</v>
+        <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N32"/>
       <c r="O32"/>
       <c r="P32"/>
-      <c r="Q32"/>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
       <c r="R32" t="n">
         <v>1</v>
       </c>
       <c r="S32" t="n">
-        <v>1</v>
+        <v>0.019</v>
       </c>
       <c r="T32" t="n">
-        <v>1</v>
+        <v>0.003</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
-      <c r="F33"/>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
@@ -7352,19 +7556,21 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>-0.325583622373633</v>
       </c>
       <c r="J33" t="n">
-        <v>0.186576103090993</v>
+        <v>0.571130866267409</v>
       </c>
       <c r="M33" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="N33"/>
       <c r="O33"/>
       <c r="P33"/>
       <c r="Q33"/>
-      <c r="R33"/>
+      <c r="R33" t="n">
+        <v>1</v>
+      </c>
       <c r="S33" t="n">
         <v>1</v>
       </c>
@@ -7372,22 +7578,24 @@
         <v>1</v>
       </c>
       <c r="U33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0.015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34"/>
       <c r="F34"/>
-      <c r="G34"/>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
@@ -7395,17 +7603,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>0.186576103090993</v>
       </c>
       <c r="M34" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N34"/>
       <c r="O34"/>
       <c r="P34"/>
       <c r="Q34"/>
       <c r="R34"/>
-      <c r="S34"/>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
       <c r="T34" t="n">
         <v>1</v>
       </c>
@@ -7413,7 +7623,7 @@
         <v>1</v>
       </c>
       <c r="V34" t="n">
-        <v>1</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="35">
@@ -7426,7 +7636,9 @@
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
-      <c r="H35"/>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
@@ -7442,7 +7654,9 @@
       <c r="Q35"/>
       <c r="R35"/>
       <c r="S35"/>
-      <c r="T35"/>
+      <c r="T35" t="n">
+        <v>1</v>
+      </c>
       <c r="U35" t="n">
         <v>1</v>
       </c>
@@ -7452,7 +7666,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B36"/>
       <c r="C36"/>
@@ -7461,12 +7675,14 @@
       <c r="F36"/>
       <c r="G36"/>
       <c r="H36"/>
-      <c r="I36"/>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
       <c r="J36" t="n">
-        <v>-0.791939909226795</v>
+        <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N36"/>
       <c r="O36"/>
@@ -7475,14 +7691,16 @@
       <c r="R36"/>
       <c r="S36"/>
       <c r="T36"/>
-      <c r="U36"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B37"/>
       <c r="C37"/>
@@ -7492,9 +7710,11 @@
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
-      <c r="J37"/>
+      <c r="J37" t="n">
+        <v>-0.791939909226795</v>
+      </c>
       <c r="M37" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N37"/>
       <c r="O37"/>
@@ -7504,7 +7724,35 @@
       <c r="S37"/>
       <c r="T37"/>
       <c r="U37"/>
-      <c r="V37"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="M38" t="s">
+        <v>8</v>
+      </c>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7524,8 +7772,8 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
+      <c r="K1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2">
@@ -7536,40 +7784,46 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
       <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
       </c>
       <c r="K2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
         <v>4</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>5</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>20</v>
       </c>
-      <c r="O2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" t="s">
-        <v>7</v>
+      <c r="Q2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -7581,40 +7835,46 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.1116379659385</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.432516272522897</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>0.363519154488681</v>
       </c>
-      <c r="J3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
+      <c r="K3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3"/>
       <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="n">
         <v>0.002</v>
       </c>
-      <c r="N3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4"/>
       <c r="C4"/>
@@ -7622,35 +7882,41 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.114710995208053</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.170344423161602</v>
-      </c>
-      <c r="J4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4"/>
+        <v>0.276641486393431</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>3</v>
+      </c>
       <c r="L4"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
+      <c r="M4"/>
       <c r="N4" t="n">
-        <v>0.013</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
         <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>0.002</v>
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
@@ -7659,30 +7925,36 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.114710995208053</v>
       </c>
       <c r="G5" t="n">
-        <v>0.113431705913479</v>
-      </c>
-      <c r="J5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5"/>
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.170344423161602</v>
+      </c>
+      <c r="K5" t="s">
+        <v>4</v>
+      </c>
       <c r="L5"/>
       <c r="M5"/>
-      <c r="N5" t="n">
-        <v>1</v>
-      </c>
+      <c r="N5"/>
       <c r="O5" t="n">
         <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>0.001</v>
+        <v>0.013</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.002</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
@@ -7692,25 +7964,31 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.139363035427265</v>
-      </c>
-      <c r="J6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6"/>
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.113431705913479</v>
+      </c>
+      <c r="K6" t="s">
+        <v>5</v>
+      </c>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
+      <c r="O6"/>
       <c r="P6" t="n">
-        <v>0.014</v>
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
@@ -7718,23 +7996,29 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7"/>
+        <v>0.0321836290483222</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.139363035427265</v>
+      </c>
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7"/>
       <c r="O7"/>
-      <c r="P7" t="n">
-        <v>1</v>
+      <c r="P7"/>
+      <c r="Q7" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.014</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B8"/>
       <c r="C8"/>
@@ -7742,297 +8026,285 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8"/>
-      <c r="J8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8"/>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8"/>
       <c r="O8"/>
       <c r="P8"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" t="s">
-        <v>9</v>
-      </c>
+      <c r="Q8"/>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="K9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>2</v>
-      </c>
-      <c r="J13" t="s">
-        <v>3</v>
-      </c>
-      <c r="K13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14"/>
-      <c r="C14" t="n">
-        <v>-0.518175526761161</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-0.439459102884714</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.431563639857159</v>
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
       </c>
       <c r="H14" t="s">
-        <v>2</v>
-      </c>
-      <c r="I14"/>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15"/>
-      <c r="C15"/>
+      <c r="C15" t="n">
+        <v>-0.518175526761161</v>
+      </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>-0.439459102884714</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.431563639857159</v>
       </c>
       <c r="H15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15"/>
-      <c r="J15"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B16"/>
       <c r="C16"/>
-      <c r="D16"/>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="I16"/>
       <c r="J16"/>
-      <c r="K16"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
-      <c r="E17"/>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
       <c r="H17" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
-      <c r="L17"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="K21" t="s">
-        <v>9</v>
-      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="H18" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K22" t="s">
-        <v>1</v>
-      </c>
-      <c r="L22" t="s">
-        <v>2</v>
-      </c>
-      <c r="M22" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" t="s">
-        <v>21</v>
-      </c>
-      <c r="P22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>18</v>
-      </c>
-      <c r="R22" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23"/>
-      <c r="C23" t="n">
-        <v>-0.403267071834748</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>-0.235500512712467</v>
-      </c>
-      <c r="F23" t="n">
-        <v>-0.274820163163924</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.51521574441629</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.480240901036609</v>
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" t="s">
+        <v>8</v>
       </c>
       <c r="K23" t="s">
-        <v>2</v>
-      </c>
-      <c r="L23"/>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0.00900000000000001</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
+        <v>2</v>
+      </c>
+      <c r="M23" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>4</v>
+      </c>
+      <c r="O23" t="s">
+        <v>21</v>
+      </c>
+      <c r="P23" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>19</v>
+      </c>
+      <c r="R23" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24"/>
-      <c r="C24"/>
+      <c r="C24" t="n">
+        <v>-0.403267071834748</v>
+      </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>-0.235500512712467</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>-0.274820163163924</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.273220549153602</v>
+        <v>0.51521574441629</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>0.480240901036609</v>
       </c>
       <c r="K24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24"/>
-      <c r="M24"/>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
       <c r="N24" t="n">
         <v>1</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>0.025</v>
       </c>
       <c r="P24" t="n">
-        <v>1</v>
+        <v>0.00900000000000001</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
-      <c r="D25"/>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
@@ -8040,17 +8312,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>-0.273220549153602</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.312616552957839</v>
+        <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L25"/>
       <c r="M25"/>
-      <c r="N25"/>
+      <c r="N25" t="n">
+        <v>1</v>
+      </c>
       <c r="O25" t="n">
         <v>1</v>
       </c>
@@ -8058,20 +8332,22 @@
         <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
+        <v>0.003</v>
       </c>
       <c r="R25" t="n">
-        <v>0.016</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
-      <c r="E26"/>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
@@ -8079,15 +8355,17 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.25175940985462</v>
+        <v>-0.312616552957839</v>
       </c>
       <c r="K26" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="L26"/>
       <c r="M26"/>
       <c r="N26"/>
-      <c r="O26"/>
+      <c r="O26" t="n">
+        <v>1</v>
+      </c>
       <c r="P26" t="n">
         <v>1</v>
       </c>
@@ -8095,68 +8373,76 @@
         <v>1</v>
       </c>
       <c r="R26" t="n">
-        <v>0.018</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
-      <c r="F27"/>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.341962155461495</v>
+        <v>-0.25175940985462</v>
       </c>
       <c r="K27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L27"/>
       <c r="M27"/>
       <c r="N27"/>
       <c r="O27"/>
-      <c r="P27"/>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
       <c r="Q27" t="n">
         <v>1</v>
       </c>
       <c r="R27" t="n">
-        <v>0.011</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
-      <c r="G28"/>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
       <c r="H28" t="n">
-        <v>0.34404502317975</v>
+        <v>-0.341962155461495</v>
       </c>
       <c r="K28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L28"/>
       <c r="M28"/>
       <c r="N28"/>
       <c r="O28"/>
       <c r="P28"/>
-      <c r="Q28"/>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
       <c r="R28" t="n">
-        <v>0.002</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B29"/>
       <c r="C29"/>
@@ -8164,9 +8450,11 @@
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29"/>
-      <c r="H29"/>
+      <c r="H29" t="n">
+        <v>0.34404502317975</v>
+      </c>
       <c r="K29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="L29"/>
       <c r="M29"/>
@@ -8174,7 +8462,31 @@
       <c r="O29"/>
       <c r="P29"/>
       <c r="Q29"/>
-      <c r="R29"/>
+      <c r="R29" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="K30" t="s">
+        <v>8</v>
+      </c>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8195,7 +8507,7 @@
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">
@@ -8209,10 +8521,10 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
@@ -8227,10 +8539,10 @@
         <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N2" t="s">
         <v>22</v>
@@ -8302,7 +8614,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
@@ -8314,7 +8626,7 @@
         <v>0.267248986587632</v>
       </c>
       <c r="I5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
@@ -8328,7 +8640,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
@@ -8338,7 +8650,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J6"/>
       <c r="K6"/>
@@ -8368,10 +8680,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
         <v>10</v>
-      </c>
-      <c r="G11" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -8456,10 +8768,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -8470,7 +8782,7 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
@@ -8482,7 +8794,7 @@
         <v>3</v>
       </c>
       <c r="I20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J20" t="s">
         <v>22</v>
@@ -8512,7 +8824,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B22"/>
       <c r="C22"/>
@@ -8520,7 +8832,7 @@
         <v>0.828265554198909</v>
       </c>
       <c r="G22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H22"/>
       <c r="I22"/>
@@ -8544,10 +8856,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -8564,10 +8876,10 @@
         <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G28" t="s">
         <v>22</v>
@@ -8588,10 +8900,10 @@
         <v>5</v>
       </c>
       <c r="O28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q28" t="s">
         <v>22</v>
@@ -8728,7 +9040,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B32"/>
       <c r="C32"/>
@@ -8744,7 +9056,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L32"/>
       <c r="M32"/>
@@ -8762,7 +9074,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B33"/>
       <c r="C33"/>
@@ -8776,7 +9088,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L33"/>
       <c r="M33"/>
@@ -8856,8 +9168,8 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
-        <v>9</v>
+      <c r="I1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2">
@@ -8865,104 +9177,224 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="M2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
-        <v>7</v>
+      <c r="N2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B3"/>
       <c r="C3" t="n">
-        <v>0.226501565053143</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3"/>
-      <c r="H3" t="n">
-        <v>0.00700000000000001</v>
+        <v>0.0512724041710014</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0447695063528008</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3"/>
+      <c r="K3" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B4"/>
       <c r="C4"/>
-      <c r="F4" t="s">
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="G4"/>
-      <c r="H4"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10"/>
-      <c r="C10" t="n">
-        <v>0.717930109405761</v>
-      </c>
-      <c r="F10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10"/>
-      <c r="H10" t="n">
-        <v>0.00600000000000001</v>
-      </c>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6" t="n">
+        <v>0.226501565053143</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6" t="n">
+        <v>0.00700000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11"/>
-      <c r="C11"/>
+        <v>13</v>
+      </c>
       <c r="F11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11"/>
-      <c r="H11"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13"/>
+      <c r="C13" t="n">
+        <v>0.717930109405761</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13"/>
+      <c r="H13" t="n">
+        <v>0.00600000000000001</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14"/>
+      <c r="H14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8983,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">
@@ -8997,16 +9429,16 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
         <v>22</v>
@@ -9021,16 +9453,16 @@
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O2" t="s">
         <v>15</v>
       </c>
       <c r="P2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R2" t="s">
         <v>22</v>
@@ -9092,7 +9524,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.102904818463383</v>
       </c>
       <c r="F4" t="n">
         <v>0.243556707536314</v>
@@ -9112,7 +9544,7 @@
         <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0.03</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -9126,7 +9558,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
@@ -9144,7 +9576,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L5"/>
       <c r="M5"/>
@@ -9177,7 +9609,7 @@
         <v>0.2254576166955</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.0891610190824896</v>
       </c>
       <c r="K6" t="s">
         <v>15</v>
@@ -9193,12 +9625,12 @@
         <v>0.003</v>
       </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
@@ -9212,7 +9644,7 @@
         <v>0.445347295457102</v>
       </c>
       <c r="K7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L7"/>
       <c r="M7"/>
@@ -9228,7 +9660,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8"/>
       <c r="C8"/>
@@ -9237,10 +9669,10 @@
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.392952866497641</v>
       </c>
       <c r="K8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L8"/>
       <c r="M8"/>
@@ -9249,7 +9681,7 @@
       <c r="P8"/>
       <c r="Q8"/>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -9276,10 +9708,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" t="s">
         <v>10</v>
-      </c>
-      <c r="K13" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -9293,16 +9725,16 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H14" t="s">
         <v>22</v>
@@ -9317,16 +9749,16 @@
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O14" t="s">
         <v>15</v>
       </c>
       <c r="P14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R14" t="s">
         <v>22</v>
@@ -9422,7 +9854,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -9440,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L17"/>
       <c r="M17"/>
@@ -9494,7 +9926,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B19"/>
       <c r="C19"/>
@@ -9508,7 +9940,7 @@
         <v>3.53316630801374</v>
       </c>
       <c r="K19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L19"/>
       <c r="M19"/>
@@ -9524,7 +9956,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B20"/>
       <c r="C20"/>
@@ -9536,7 +9968,7 @@
         <v>-2.86206784572294</v>
       </c>
       <c r="K20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L20"/>
       <c r="M20"/>
@@ -9572,10 +10004,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -9586,10 +10018,10 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E26" t="s">
         <v>22</v>
@@ -9601,10 +10033,10 @@
         <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L26" t="s">
         <v>22</v>
@@ -9640,7 +10072,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B28"/>
       <c r="C28"/>
@@ -9651,7 +10083,7 @@
         <v>0.785507878163223</v>
       </c>
       <c r="H28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I28"/>
       <c r="J28"/>
@@ -9664,7 +10096,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B29"/>
       <c r="C29"/>
@@ -9673,7 +10105,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I29"/>
       <c r="J29"/>
@@ -9700,10 +10132,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -9720,16 +10152,16 @@
         <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F35" t="s">
         <v>15</v>
       </c>
       <c r="G35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I35" t="s">
         <v>22</v>
@@ -9747,16 +10179,16 @@
         <v>5</v>
       </c>
       <c r="P35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q35" t="s">
         <v>15</v>
       </c>
       <c r="R35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T35" t="s">
         <v>22</v>
@@ -9908,7 +10340,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B39"/>
       <c r="C39"/>
@@ -9927,7 +10359,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M39"/>
       <c r="N39"/>
@@ -9984,7 +10416,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B41"/>
       <c r="C41"/>
@@ -9999,7 +10431,7 @@
         <v>0.450604735473328</v>
       </c>
       <c r="L41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M41"/>
       <c r="N41"/>
@@ -10016,7 +10448,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B42"/>
       <c r="C42"/>
@@ -10029,7 +10461,7 @@
         <v>-0.555442466328161</v>
       </c>
       <c r="L42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M42"/>
       <c r="N42"/>
@@ -10085,7 +10517,7 @@
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">
@@ -10099,10 +10531,10 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
@@ -10117,10 +10549,10 @@
         <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N2" t="s">
         <v>22</v>
@@ -10192,7 +10624,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
@@ -10204,7 +10636,7 @@
         <v>0.223526656300852</v>
       </c>
       <c r="I5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
@@ -10218,7 +10650,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
@@ -10228,7 +10660,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J6"/>
       <c r="K6"/>
@@ -10258,10 +10690,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" t="s">
         <v>10</v>
-      </c>
-      <c r="I11" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -10275,10 +10707,10 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
@@ -10293,10 +10725,10 @@
         <v>15</v>
       </c>
       <c r="L12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N12" t="s">
         <v>22</v>
@@ -10368,7 +10800,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15"/>
       <c r="C15"/>
@@ -10380,7 +10812,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J15"/>
       <c r="K15"/>
@@ -10394,7 +10826,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B16"/>
       <c r="C16"/>
@@ -10404,7 +10836,7 @@
         <v>-4.64514098258988</v>
       </c>
       <c r="I16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J16"/>
       <c r="K16"/>
@@ -10434,10 +10866,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -10451,13 +10883,13 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G22" t="s">
         <v>22</v>
@@ -10472,13 +10904,13 @@
         <v>3</v>
       </c>
       <c r="M22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P22" t="s">
         <v>22</v>
@@ -10562,7 +10994,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
@@ -10577,7 +11009,7 @@
         <v>0.730860484262828</v>
       </c>
       <c r="J25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K25"/>
       <c r="L25"/>
@@ -10594,7 +11026,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26"/>
       <c r="C26"/>
@@ -10607,7 +11039,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K26"/>
       <c r="L26"/>
@@ -10622,7 +11054,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B27"/>
       <c r="C27"/>
@@ -10633,7 +11065,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K27"/>
       <c r="L27"/>
@@ -10666,10 +11098,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -10680,10 +11112,10 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E33" t="s">
         <v>22</v>
@@ -10695,10 +11127,10 @@
         <v>3</v>
       </c>
       <c r="J33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L33" t="s">
         <v>22</v>
@@ -10734,7 +11166,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B35"/>
       <c r="C35"/>
@@ -10745,7 +11177,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I35"/>
       <c r="J35"/>
@@ -10758,7 +11190,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B36"/>
       <c r="C36"/>
@@ -10767,7 +11199,7 @@
         <v>-0.656369554694061</v>
       </c>
       <c r="H36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I36"/>
       <c r="J36"/>

--- a/supp_data/tcga_sig_sig_all_metrics_report.xlsx
+++ b/supp_data/tcga_sig_sig_all_metrics_report.xlsx
@@ -34,10 +34,13 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Ageing</t>
+    <t xml:space="preserve">APOBEC</t>
   </si>
   <si>
-    <t xml:space="preserve">APOBEC</t>
+    <t xml:space="preserve">CL SBS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL SBS5</t>
   </si>
   <si>
     <t xml:space="preserve">HR</t>
@@ -50,9 +53,6 @@
   </si>
   <si>
     <t xml:space="preserve">SBS30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBS5</t>
   </si>
   <si>
     <t xml:space="preserve">Technical</t>
@@ -517,10 +517,10 @@
         <v>0.294573224067023</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.248729211585896</v>
       </c>
       <c r="E3" t="n">
-        <v>0.315313293783179</v>
+        <v>0.214988721822139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.460812213955697</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -539,13 +539,13 @@
       </c>
       <c r="M3"/>
       <c r="N3" t="n">
-        <v>0.019</v>
+        <v>0.02</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0.024</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>0.027</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -554,7 +554,7 @@
         <v>1</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>
@@ -567,19 +567,19 @@
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4" t="n">
-        <v>0.214988721822139</v>
+        <v>0.460812213955697</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.315313293783179</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.248729211585896</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -590,19 +590,19 @@
       <c r="M4"/>
       <c r="N4"/>
       <c r="O4" t="n">
-        <v>0.023</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>1</v>
       </c>
       <c r="S4" t="n">
-        <v>0.026</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
         <v>1</v>
@@ -616,10 +616,10 @@
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5" t="n">
-        <v>0.021877887655994</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.248698096791733</v>
+        <v>0.272905844131691</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -637,10 +637,10 @@
       <c r="N5"/>
       <c r="O5"/>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>1</v>
@@ -661,13 +661,13 @@
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6" t="n">
-        <v>0.00948835552779976</v>
+        <v>0.021877887655994</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00617841484242218</v>
+        <v>0.248698096791733</v>
       </c>
       <c r="H6" t="n">
-        <v>0.272905844131691</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" t="n">
         <v>1</v>
@@ -702,13 +702,13 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.00948835552779976</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.00617841484242218</v>
       </c>
       <c r="I7" t="n">
-        <v>0.179170053940526</v>
+        <v>0</v>
       </c>
       <c r="L7" t="s">
         <v>6</v>
@@ -719,13 +719,13 @@
       <c r="P7"/>
       <c r="Q7"/>
       <c r="R7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>0.023</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.179170053940526</v>
       </c>
       <c r="L8" t="s">
         <v>7</v>
@@ -757,7 +757,7 @@
         <v>1</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -825,13 +825,13 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -840,13 +840,13 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L15" t="s">
         <v>9</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16"/>
       <c r="C16" t="n">
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16"/>
       <c r="J16" t="n">
@@ -882,7 +882,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I17"/>
       <c r="J17"/>
@@ -906,7 +906,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B18"/>
       <c r="C18"/>
@@ -915,7 +915,7 @@
         <v>10</v>
       </c>
       <c r="H18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I18"/>
       <c r="J18"/>
@@ -959,7 +959,7 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G24" t="s">
         <v>1</v>
@@ -971,7 +971,7 @@
         <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -983,7 +983,7 @@
         <v>-0.294681033259885</v>
       </c>
       <c r="D25" t="n">
-        <v>0.364067266764069</v>
+        <v>0</v>
       </c>
       <c r="G25" t="s">
         <v>2</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1003,7 +1003,7 @@
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>0.364067266764069</v>
       </c>
       <c r="G26" t="s">
         <v>3</v>
@@ -1011,18 +1011,18 @@
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
       <c r="G27" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H27"/>
       <c r="I27"/>
@@ -1053,10 +1053,10 @@
         <v>5</v>
       </c>
       <c r="F32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" t="s">
         <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>6</v>
       </c>
       <c r="H32" t="s">
         <v>7</v>
@@ -1083,10 +1083,10 @@
         <v>5</v>
       </c>
       <c r="R32" t="s">
+        <v>6</v>
+      </c>
+      <c r="S32" t="s">
         <v>14</v>
-      </c>
-      <c r="S32" t="s">
-        <v>6</v>
       </c>
       <c r="T32" t="s">
         <v>7</v>
@@ -1110,50 +1110,50 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.348983937048192</v>
+        <v>-0.362076285614441</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>-0.277677289672004</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>-0.401018098416783</v>
       </c>
       <c r="I33" t="n">
-        <v>0.364095748457196</v>
+        <v>-0.20346845097799</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.193936583053055</v>
+        <v>0</v>
       </c>
       <c r="M33" t="s">
         <v>2</v>
       </c>
       <c r="N33"/>
       <c r="O33" t="n">
-        <v>0.016</v>
+        <v>0.019</v>
       </c>
       <c r="P33" t="n">
         <v>1</v>
       </c>
       <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.00700000000000001</v>
+      </c>
+      <c r="U33" t="n">
         <v>0.004</v>
       </c>
-      <c r="R33" t="n">
-        <v>1</v>
-      </c>
-      <c r="S33" t="n">
-        <v>1</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0.001</v>
-      </c>
       <c r="V33" t="n">
-        <v>0.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1163,25 +1163,25 @@
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34" t="n">
-        <v>-0.362076285614441</v>
+        <v>0.364095748457196</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.277677289672004</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>0.348983937048192</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.401018098416783</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.20346845097799</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>-0.193936583053055</v>
       </c>
       <c r="M34" t="s">
         <v>3</v>
@@ -1192,22 +1192,22 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.017</v>
+        <v>1</v>
       </c>
       <c r="R34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0.005</v>
+        <v>1</v>
       </c>
       <c r="T34" t="n">
-        <v>0.004</v>
+        <v>1</v>
       </c>
       <c r="U34" t="n">
         <v>1</v>
       </c>
       <c r="V34" t="n">
-        <v>1</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="35">
@@ -1218,10 +1218,10 @@
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-0.398558622234158</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>0.360017182784373</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.398558622234158</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -1242,10 +1242,10 @@
       <c r="O35"/>
       <c r="P35"/>
       <c r="Q35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="S35" t="n">
         <v>1</v>
@@ -1254,7 +1254,7 @@
         <v>1</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V35" t="n">
         <v>1</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.360017182784373</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>1</v>
       </c>
       <c r="U36" t="n">
-        <v>0.002</v>
+        <v>1</v>
       </c>
       <c r="V36" t="n">
         <v>1</v>
@@ -1308,7 +1308,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B37"/>
       <c r="C37"/>
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.237806640670006</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="N37"/>
       <c r="O37"/>
@@ -1339,7 +1339,7 @@
         <v>1</v>
       </c>
       <c r="T37" t="n">
-        <v>0.002</v>
+        <v>1</v>
       </c>
       <c r="U37" t="n">
         <v>1</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B38"/>
       <c r="C38"/>
@@ -1362,13 +1362,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.237806640670006</v>
       </c>
       <c r="J38" t="n">
-        <v>0.415650931180151</v>
+        <v>0</v>
       </c>
       <c r="M38" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N38"/>
       <c r="O38"/>
@@ -1380,10 +1380,10 @@
         <v>1</v>
       </c>
       <c r="U38" t="n">
-        <v>1</v>
+        <v>0.003</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.415650931180151</v>
       </c>
       <c r="M39" t="s">
         <v>7</v>
@@ -1417,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="V39" t="n">
-        <v>1</v>
+        <v>0.00800000000000001</v>
       </c>
     </row>
     <row r="40">
@@ -1503,52 +1503,52 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
       <c r="G2" t="s">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
         <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3"/>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.437372174497718</v>
       </c>
       <c r="D3" t="n">
-        <v>0.437372174497718</v>
+        <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3"/>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B4"/>
       <c r="C4"/>
@@ -1556,23 +1556,23 @@
         <v>0.283970991117125</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5"/>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -1591,45 +1591,45 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11"/>
       <c r="C11" t="n">
         <v>0.885334221217587</v>
       </c>
       <c r="F11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11"/>
       <c r="H11" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B12"/>
       <c r="C12"/>
       <c r="F12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
@@ -1653,13 +1653,13 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
         <v>27</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>15</v>
-      </c>
-      <c r="F17" t="s">
-        <v>8</v>
       </c>
       <c r="G17" t="s">
         <v>9</v>
@@ -1674,13 +1674,13 @@
         <v>3</v>
       </c>
       <c r="M17" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
         <v>27</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>15</v>
-      </c>
-      <c r="O17" t="s">
-        <v>8</v>
       </c>
       <c r="P17" t="s">
         <v>9</v>
@@ -1695,7 +1695,7 @@
         <v>-0.437608833452478</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.561894883551758</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1704,17 +1704,17 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.421623118432878</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
         <v>2</v>
       </c>
       <c r="K18"/>
       <c r="L18" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>1</v>
@@ -1723,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>0.018</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1739,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.561894883551758</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-0.421623118432878</v>
       </c>
       <c r="J19" t="s">
         <v>3</v>
@@ -1756,15 +1756,15 @@
         <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B20"/>
       <c r="C20"/>
@@ -1773,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-0.595247449076269</v>
       </c>
       <c r="G20" t="n">
-        <v>0.48583175994366</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="K20"/>
       <c r="L20"/>
@@ -1788,43 +1788,43 @@
         <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0.023</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21" t="n">
-        <v>-0.595247449076269</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.48583175994366</v>
       </c>
       <c r="J21" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="K21"/>
       <c r="L21"/>
       <c r="M21"/>
       <c r="N21"/>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B22"/>
       <c r="C22"/>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K22"/>
       <c r="L22"/>
@@ -1893,13 +1893,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
       </c>
       <c r="E2" t="s">
         <v>23</v>
@@ -1908,13 +1908,13 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" t="s">
         <v>15</v>
-      </c>
-      <c r="K2" t="s">
-        <v>8</v>
       </c>
       <c r="L2" t="s">
         <v>23</v>
@@ -1922,27 +1922,27 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3"/>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.591734811479119</v>
       </c>
       <c r="D3" t="n">
-        <v>0.591734811479119</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3"/>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0.00700000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.00900000000000001</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -1950,7 +1950,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B4"/>
       <c r="C4"/>
@@ -1958,38 +1958,38 @@
         <v>0.363227273950528</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.488484458219776</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4" t="n">
-        <v>0.00700000000000001</v>
+        <v>0.003</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5" t="n">
-        <v>0.488484458219776</v>
+        <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5" t="n">
-        <v>0.028</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -2021,31 +2021,31 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
       <c r="F11" t="s">
         <v>1</v>
       </c>
       <c r="G11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
         <v>15</v>
-      </c>
-      <c r="H11" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B12"/>
       <c r="C12" t="n">
         <v>-10</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G12"/>
       <c r="H12" t="n">
@@ -2054,12 +2054,12 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B13"/>
       <c r="C13"/>
       <c r="F13" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -2077,13 +2077,13 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
         <v>15</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
       </c>
       <c r="E18" t="s">
         <v>23</v>
@@ -2092,13 +2092,13 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" t="s">
         <v>15</v>
-      </c>
-      <c r="K18" t="s">
-        <v>8</v>
       </c>
       <c r="L18" t="s">
         <v>23</v>
@@ -2106,7 +2106,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B19"/>
       <c r="C19" t="n">
@@ -2119,7 +2119,7 @@
         <v>-0.600638251687861</v>
       </c>
       <c r="H19" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I19"/>
       <c r="J19" t="n">
@@ -2129,12 +2129,12 @@
         <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>0.046</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B20"/>
       <c r="C20"/>
@@ -2145,12 +2145,12 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="L20" t="n">
         <v>1</v>
@@ -2158,7 +2158,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B21"/>
       <c r="C21"/>
@@ -2167,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I21"/>
       <c r="J21"/>
@@ -2219,13 +2219,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -2237,13 +2237,13 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" t="s">
         <v>27</v>
-      </c>
-      <c r="L2" t="s">
-        <v>8</v>
       </c>
       <c r="M2" t="s">
         <v>9</v>
@@ -2254,23 +2254,23 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3"/>
       <c r="C3" t="n">
+        <v>0.345355073656823</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.0947887700182391</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.345355073656823</v>
-      </c>
       <c r="E3" t="n">
-        <v>0.411656307209995</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0.436461499478607</v>
       </c>
       <c r="I3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3"/>
       <c r="K3" t="n">
@@ -2280,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.042</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -2288,7 +2288,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B4"/>
       <c r="C4"/>
@@ -2296,13 +2296,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.407424001756881</v>
+        <v>0.489835564053168</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.485068046202324</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
@@ -2310,36 +2310,36 @@
         <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5" t="n">
-        <v>0.489835564053168</v>
+        <v>0.407424001756881</v>
       </c>
       <c r="F5" t="n">
-        <v>0.485068046202324</v>
+        <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5" t="n">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -2395,13 +2395,13 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -2413,13 +2413,13 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" t="s">
         <v>27</v>
-      </c>
-      <c r="L12" t="s">
-        <v>8</v>
       </c>
       <c r="M12" t="s">
         <v>9</v>
@@ -2430,14 +2430,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13"/>
       <c r="C13" t="n">
+        <v>3.14227591045339</v>
+      </c>
+      <c r="D13" t="n">
         <v>-3.60765682856828</v>
-      </c>
-      <c r="D13" t="n">
-        <v>3.14227591045339</v>
       </c>
       <c r="E13" t="n">
         <v>-2.77291355445113</v>
@@ -2446,7 +2446,7 @@
         <v>4.4369197377139</v>
       </c>
       <c r="I13" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13"/>
       <c r="K13" t="n">
@@ -2464,7 +2464,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -2472,13 +2472,13 @@
         <v>-2.86077946429761</v>
       </c>
       <c r="E14" t="n">
-        <v>3.73316696897583</v>
+        <v>-3.92371801645665</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.12803908848056</v>
+        <v>2.17775605433683</v>
       </c>
       <c r="I14" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="J14"/>
       <c r="K14"/>
@@ -2494,19 +2494,19 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15" t="n">
-        <v>-3.92371801645665</v>
+        <v>3.73316696897583</v>
       </c>
       <c r="F15" t="n">
-        <v>2.17775605433683</v>
+        <v>-3.12803908848056</v>
       </c>
       <c r="I15" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="J15"/>
       <c r="K15"/>
@@ -2571,10 +2571,10 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
         <v>27</v>
-      </c>
-      <c r="C22" t="s">
-        <v>8</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
@@ -2586,10 +2586,10 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" t="s">
         <v>27</v>
-      </c>
-      <c r="J22" t="s">
-        <v>8</v>
       </c>
       <c r="K22" t="s">
         <v>9</v>
@@ -2600,54 +2600,54 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B23"/>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.885234512241182</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.317024232760931</v>
       </c>
       <c r="H23" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="I23"/>
       <c r="J23" t="n">
         <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>0.027</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>0.885234512241182</v>
       </c>
       <c r="E24" t="n">
-        <v>0.317024232760931</v>
+        <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="L24" t="n">
-        <v>0.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -2699,19 +2699,19 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
         <v>28</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>27</v>
-      </c>
-      <c r="F31" t="s">
-        <v>8</v>
       </c>
       <c r="G31" t="s">
         <v>9</v>
@@ -2723,19 +2723,19 @@
         <v>1</v>
       </c>
       <c r="L31" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N31" t="s">
+        <v>6</v>
+      </c>
+      <c r="O31" t="s">
         <v>28</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>27</v>
-      </c>
-      <c r="P31" t="s">
-        <v>8</v>
       </c>
       <c r="Q31" t="s">
         <v>9</v>
@@ -2746,20 +2746,20 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B32"/>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>0.347881939916848</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>-0.327802436905352</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.347881939916848</v>
       </c>
       <c r="G32" t="n">
         <v>-0.557375002468441</v>
@@ -2768,20 +2768,20 @@
         <v>0.511154571893659</v>
       </c>
       <c r="K32" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L32"/>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>0.005</v>
       </c>
       <c r="N32" t="n">
         <v>1</v>
       </c>
       <c r="O32" t="n">
-        <v>0.00700000000000001</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
-        <v>0.00900000000000001</v>
+        <v>0.004</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -2792,7 +2792,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33"/>
       <c r="C33"/>
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.140491162567536</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>-0.275526422130802</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>-0.376985955107183</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>0.478581640770682</v>
       </c>
       <c r="K33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L33"/>
       <c r="M33"/>
@@ -2820,30 +2820,30 @@
         <v>1</v>
       </c>
       <c r="O33" t="n">
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>0.00700000000000001</v>
       </c>
       <c r="Q33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>1</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34" t="n">
-        <v>0.203866207118885</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>0.140491162567536</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -2852,16 +2852,16 @@
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="L34"/>
       <c r="M34"/>
       <c r="N34"/>
       <c r="O34" t="n">
-        <v>0.018</v>
+        <v>1</v>
       </c>
       <c r="P34" t="n">
-        <v>1</v>
+        <v>0.019</v>
       </c>
       <c r="Q34" t="n">
         <v>1</v>
@@ -2872,41 +2872,41 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35" t="n">
-        <v>-0.275526422130802</v>
+        <v>0.203866207118885</v>
       </c>
       <c r="G35" t="n">
-        <v>0.453956159322448</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.28361893979214</v>
+        <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L35"/>
       <c r="M35"/>
       <c r="N35"/>
       <c r="O35"/>
       <c r="P35" t="n">
-        <v>0.00900000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" t="n">
-        <v>0.005</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B36"/>
       <c r="C36"/>
@@ -2914,13 +2914,13 @@
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>-0.376985955107183</v>
+        <v>0.453956159322448</v>
       </c>
       <c r="H36" t="n">
-        <v>0.478581640770682</v>
+        <v>-0.28361893979214</v>
       </c>
       <c r="K36" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="L36"/>
       <c r="M36"/>
@@ -2931,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="37">
@@ -3015,16 +3015,16 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -3039,16 +3039,16 @@
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" t="s">
         <v>19</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>15</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>8</v>
       </c>
       <c r="R2" t="s">
         <v>9</v>
@@ -3063,19 +3063,19 @@
         <v>0.215504574413978</v>
       </c>
       <c r="D3" t="n">
-        <v>1.12438640450854</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.318287998954547</v>
+        <v>0.145183924029018</v>
       </c>
       <c r="F3" t="n">
-        <v>0.235408262656873</v>
+        <v>0.422135941730518</v>
       </c>
       <c r="G3" t="n">
-        <v>0.900362670637393</v>
+        <v>0.41561873635647</v>
       </c>
       <c r="H3" t="n">
-        <v>0.241228129333305</v>
+        <v>0</v>
       </c>
       <c r="K3" t="s">
         <v>2</v>
@@ -3085,19 +3085,19 @@
         <v>0.001</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.006</v>
+        <v>0.035</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -3107,19 +3107,19 @@
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4" t="n">
-        <v>0.145183924029018</v>
+        <v>0.900362670637393</v>
       </c>
       <c r="E4" t="n">
-        <v>0.422135941730518</v>
+        <v>1.12438640450854</v>
       </c>
       <c r="F4" t="n">
-        <v>0.41561873635647</v>
+        <v>0.318287998954547</v>
       </c>
       <c r="G4" t="n">
-        <v>0.232371690132737</v>
+        <v>0.235408262656873</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.241228129333305</v>
       </c>
       <c r="K4" t="s">
         <v>3</v>
@@ -3130,39 +3130,39 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.035</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="R4" t="n">
         <v>0.001</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.046</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5" t="n">
-        <v>0.265106023099863</v>
+        <v>1.00035149359012</v>
       </c>
       <c r="F5" t="n">
-        <v>0.219404841089469</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.00035149359012</v>
+        <v>0.513914892390931</v>
       </c>
       <c r="H5" t="n">
-        <v>0.288470601791409</v>
+        <v>0.224448238478451</v>
       </c>
       <c r="K5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L5"/>
       <c r="M5"/>
@@ -3171,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -3182,41 +3182,41 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.265106023099863</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.219404841089469</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0883389870693253</v>
+        <v>0.288470601791409</v>
       </c>
       <c r="K6" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
       <c r="O6"/>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
@@ -3224,13 +3224,13 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>0.513914892390931</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.0883389870693253</v>
       </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L7"/>
       <c r="M7"/>
@@ -3238,15 +3238,15 @@
       <c r="O7"/>
       <c r="P7"/>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>1</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B8"/>
       <c r="C8"/>
@@ -3255,10 +3255,10 @@
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8" t="n">
-        <v>0.224448238478451</v>
+        <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="L8"/>
       <c r="M8"/>
@@ -3267,7 +3267,7 @@
       <c r="P8"/>
       <c r="Q8"/>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -3305,19 +3305,19 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
         <v>19</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>15</v>
-      </c>
-      <c r="F14" t="s">
-        <v>8</v>
       </c>
       <c r="G14" t="s">
         <v>9</v>
@@ -3326,19 +3326,19 @@
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" t="s">
         <v>19</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>15</v>
-      </c>
-      <c r="O14" t="s">
-        <v>8</v>
       </c>
       <c r="P14" t="s">
         <v>9</v>
@@ -3346,39 +3346,39 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15"/>
       <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
         <v>-2.51816064219822</v>
       </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
       <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>0.935372885279307</v>
       </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K15"/>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -3386,95 +3386,95 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16" t="n">
-        <v>-2.61326366122475</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-2.67686741464934</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="G16" t="n">
-        <v>2.26409408182006</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-2.61326366122475</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-2.67686741464934</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.26409408182006</v>
       </c>
       <c r="J17" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17"/>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K18"/>
       <c r="L18"/>
       <c r="M18"/>
       <c r="N18"/>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -3482,7 +3482,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B19"/>
       <c r="C19"/>
@@ -3493,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K19"/>
       <c r="L19"/>
@@ -3537,106 +3537,106 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
         <v>16</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>19</v>
       </c>
-      <c r="F25" t="s">
-        <v>8</v>
-      </c>
       <c r="I25" t="s">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L25" t="s">
+        <v>6</v>
+      </c>
+      <c r="M25" t="s">
         <v>16</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>19</v>
-      </c>
-      <c r="N25" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B26"/>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
         <v>-0.379376106136561</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>-0.999989284649755</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>-0.308150971619248</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J26"/>
       <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="n">
         <v>0.001</v>
       </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
       <c r="M26" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="N26" t="n">
         <v>0.003</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>0.354079962832907</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.354079962832907</v>
+        <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J27"/>
       <c r="K27"/>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B28"/>
       <c r="C28"/>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J28"/>
       <c r="K28"/>
@@ -3662,7 +3662,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B29"/>
       <c r="C29"/>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J29"/>
       <c r="K29"/>
@@ -3684,7 +3684,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B30"/>
       <c r="C30"/>
@@ -3692,7 +3692,7 @@
       <c r="E30"/>
       <c r="F30"/>
       <c r="I30" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="J30"/>
       <c r="K30"/>
@@ -3719,16 +3719,16 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" t="s">
         <v>19</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>15</v>
-      </c>
-      <c r="G35" t="s">
-        <v>8</v>
       </c>
       <c r="H35" t="s">
         <v>9</v>
@@ -3743,16 +3743,16 @@
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O35" t="s">
+        <v>6</v>
+      </c>
+      <c r="P35" t="s">
         <v>19</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
         <v>15</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>8</v>
       </c>
       <c r="R35" t="s">
         <v>9</v>
@@ -3767,19 +3767,19 @@
         <v>-0.40159027442697</v>
       </c>
       <c r="D36" t="n">
-        <v>0.635552246107384</v>
+        <v>-0.24667175040118</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.393679699492273</v>
+        <v>-0.327672034053628</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.252638253786379</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.56420155031429</v>
+        <v>0.235212935390087</v>
       </c>
       <c r="H36" t="n">
-        <v>0.200506835316423</v>
+        <v>0</v>
       </c>
       <c r="K36" t="s">
         <v>2</v>
@@ -3789,19 +3789,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -3811,19 +3811,19 @@
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37" t="n">
-        <v>-0.327672034053628</v>
+        <v>0.56420155031429</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.635552246107384</v>
       </c>
       <c r="F37" t="n">
-        <v>0.235212935390087</v>
+        <v>-0.393679699492273</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.24667175040118</v>
+        <v>-0.252638253786379</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>0.200506835316423</v>
       </c>
       <c r="K37" t="s">
         <v>3</v>
@@ -3831,96 +3831,96 @@
       <c r="L37"/>
       <c r="M37"/>
       <c r="N37" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>0.001</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38" t="n">
-        <v>-0.433610877770559</v>
+        <v>0.701429419790631</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.406652752734449</v>
+        <v>-0.187453050981752</v>
       </c>
       <c r="G38" t="n">
-        <v>0.701429419790631</v>
+        <v>-0.73555261402849</v>
       </c>
       <c r="H38" t="n">
-        <v>0.286309587630552</v>
+        <v>0.189796644061318</v>
       </c>
       <c r="K38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L38"/>
       <c r="M38"/>
       <c r="N38"/>
       <c r="O38" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>0.00900000000000001</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39"/>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>-0.433610877770559</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.187453050981752</v>
+        <v>-0.406652752734449</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.153377114576948</v>
+        <v>0.286309587630552</v>
       </c>
       <c r="K39" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="L39"/>
       <c r="M39"/>
       <c r="N39"/>
       <c r="O39"/>
       <c r="P39" t="n">
-        <v>1</v>
+        <v>0.003</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.029</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B40"/>
       <c r="C40"/>
@@ -3928,13 +3928,13 @@
       <c r="E40"/>
       <c r="F40"/>
       <c r="G40" t="n">
-        <v>-0.73555261402849</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>-0.153377114576948</v>
       </c>
       <c r="K40" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L40"/>
       <c r="M40"/>
@@ -3942,15 +3942,15 @@
       <c r="O40"/>
       <c r="P40"/>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" t="n">
-        <v>1</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B41"/>
       <c r="C41"/>
@@ -3959,10 +3959,10 @@
       <c r="F41"/>
       <c r="G41"/>
       <c r="H41" t="n">
-        <v>0.189796644061318</v>
+        <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="L41"/>
       <c r="M41"/>
@@ -3971,7 +3971,7 @@
       <c r="P41"/>
       <c r="Q41"/>
       <c r="R41" t="n">
-        <v>0.00700000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -4032,7 +4032,7 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -4050,7 +4050,7 @@
         <v>4</v>
       </c>
       <c r="M2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>9</v>
@@ -4065,10 +4065,10 @@
         <v>0.174197354637338</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.213713557113242</v>
       </c>
       <c r="E3" t="n">
-        <v>0.197178387557785</v>
+        <v>0.101070166649831</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -4081,10 +4081,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="N3" t="n">
         <v>1</v>
@@ -4097,13 +4097,13 @@
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4" t="n">
-        <v>0.101070166649831</v>
+        <v>0.197178387557785</v>
       </c>
       <c r="E4" t="n">
-        <v>0.213713557113242</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.0766632746173931</v>
       </c>
       <c r="I4" t="s">
         <v>3</v>
@@ -4111,13 +4111,13 @@
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="5">
@@ -4131,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.106105029029972</v>
       </c>
       <c r="I5" t="s">
         <v>4</v>
@@ -4143,29 +4143,29 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0.00800000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6" t="n">
-        <v>0.106105029029972</v>
+        <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6" t="n">
-        <v>0.00700000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -4211,10 +4211,10 @@
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H12" t="s">
         <v>9</v>
@@ -4235,10 +4235,10 @@
         <v>4</v>
       </c>
       <c r="P12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R12" t="s">
         <v>9</v>
@@ -4256,10 +4256,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>0.186162913120334</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -4278,10 +4278,10 @@
         <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>0.022</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0.028</v>
       </c>
       <c r="Q13" t="n">
         <v>1</v>
@@ -4300,16 +4300,16 @@
         <v>0.2588999966212</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.293161984105135</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-0.173935161204358</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.222681408220497</v>
+        <v>-0.18614031126958</v>
       </c>
       <c r="K14" t="s">
         <v>2</v>
@@ -4317,19 +4317,19 @@
       <c r="L14"/>
       <c r="M14"/>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0.00600000000000001</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" t="n">
-        <v>0.005</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="15">
@@ -4340,16 +4340,16 @@
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15" t="n">
-        <v>-0.173935161204358</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.293161984105135</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.18614031126958</v>
+        <v>-0.222681408220497</v>
       </c>
       <c r="K15" t="s">
         <v>3</v>
@@ -4358,16 +4358,16 @@
       <c r="M15"/>
       <c r="N15"/>
       <c r="O15" t="n">
-        <v>0.00700000000000001</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
-        <v>0.016</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="16">
@@ -4379,10 +4379,10 @@
       <c r="D16"/>
       <c r="E16"/>
       <c r="F16" t="n">
-        <v>0.21558316893735</v>
+        <v>-0.217950759243123</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.217950759243123</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -4395,10 +4395,10 @@
       <c r="N16"/>
       <c r="O16"/>
       <c r="P16" t="n">
-        <v>0.023</v>
+        <v>0.002</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.00900000000000001</v>
+        <v>1</v>
       </c>
       <c r="R16" t="n">
         <v>1</v>
@@ -4406,7 +4406,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -4414,13 +4414,13 @@
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.21558316893735</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L17"/>
       <c r="M17"/>
@@ -4428,7 +4428,7 @@
       <c r="O17"/>
       <c r="P17"/>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>0.011</v>
       </c>
       <c r="R17" t="n">
         <v>1</v>
@@ -4436,7 +4436,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18"/>
       <c r="C18"/>
@@ -4448,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L18"/>
       <c r="M18"/>
@@ -4515,20 +4515,20 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
       <c r="K2" t="s">
         <v>1</v>
       </c>
@@ -4539,19 +4539,19 @@
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" t="s">
         <v>16</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>15</v>
-      </c>
-      <c r="R2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -4563,19 +4563,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.903552734750768</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.509844451769094</v>
+        <v>0.101772758984335</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.027441886365217</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.0139765913820605</v>
       </c>
       <c r="H3" t="n">
-        <v>1.14466544898824</v>
+        <v>0.275577570335051</v>
       </c>
       <c r="K3" t="s">
         <v>2</v>
@@ -4585,16 +4585,16 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>0.002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -4607,16 +4607,16 @@
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4" t="n">
-        <v>0.101772758984335</v>
+        <v>1.14466544898824</v>
       </c>
       <c r="E4" t="n">
-        <v>0.027441886365217</v>
+        <v>0.903552734750768</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0139765913820605</v>
+        <v>0.509844451769094</v>
       </c>
       <c r="G4" t="n">
-        <v>0.275577570335051</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -4630,13 +4630,13 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" t="n">
         <v>1</v>
@@ -4644,71 +4644,71 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5" t="n">
-        <v>0.407098548398134</v>
+        <v>0.993620180888408</v>
       </c>
       <c r="F5" t="n">
-        <v>0.103253340279186</v>
+        <v>0.594978061510612</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0959540456867329</v>
+        <v>0.271353031929857</v>
       </c>
       <c r="H5" t="n">
-        <v>0.993620180888408</v>
+        <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5" t="n">
-        <v>0.00900000000000001</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6" t="n">
-        <v>0.486985537863126</v>
+        <v>0.407098548398134</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0247693318280956</v>
+        <v>0.103253340279186</v>
       </c>
       <c r="H6" t="n">
-        <v>0.594978061510612</v>
+        <v>0.0959540456867329</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
       <c r="O6"/>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>0.014</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.003</v>
+        <v>0.011</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -4716,7 +4716,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
@@ -4724,13 +4724,13 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.486985537863126</v>
       </c>
       <c r="H7" t="n">
-        <v>0.271353031929857</v>
+        <v>0.0247693318280956</v>
       </c>
       <c r="K7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L7"/>
       <c r="M7"/>
@@ -4738,15 +4738,15 @@
       <c r="O7"/>
       <c r="P7"/>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8"/>
       <c r="C8"/>
@@ -4755,10 +4755,10 @@
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.0126153178001694</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L8"/>
       <c r="M8"/>
@@ -4767,12 +4767,12 @@
       <c r="P8"/>
       <c r="Q8"/>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B9"/>
       <c r="C9"/>
@@ -4782,7 +4782,7 @@
       <c r="G9"/>
       <c r="H9"/>
       <c r="K9" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="L9"/>
       <c r="M9"/>
@@ -4805,88 +4805,88 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
         <v>16</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>17</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>15</v>
       </c>
-      <c r="G14" t="s">
-        <v>8</v>
-      </c>
       <c r="J14" t="s">
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" t="s">
         <v>16</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>17</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>15</v>
-      </c>
-      <c r="P14" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15"/>
       <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
         <v>-2.78669915531927</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>-10</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
       <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
         <v>2.91808213609296</v>
       </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
       <c r="J15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K15"/>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16"/>
       <c r="C16"/>
@@ -4894,16 +4894,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-2.53161656793235</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.58562229298503</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-4.6073286282984</v>
       </c>
       <c r="J16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K16"/>
       <c r="L16"/>
@@ -4911,78 +4911,78 @@
         <v>1</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-10</v>
+        <v>-2.53161656793235</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-2.58562229298503</v>
       </c>
       <c r="J17" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17"/>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K18"/>
       <c r="L18"/>
       <c r="M18"/>
       <c r="N18"/>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B19"/>
       <c r="C19"/>
@@ -4990,10 +4990,10 @@
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19" t="n">
-        <v>-4.6073286282984</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K19"/>
       <c r="L19"/>
@@ -5001,12 +5001,12 @@
       <c r="N19"/>
       <c r="O19"/>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B20"/>
       <c r="C20"/>
@@ -5015,7 +5015,7 @@
       <c r="F20"/>
       <c r="G20"/>
       <c r="J20" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K20"/>
       <c r="L20"/>
@@ -5037,45 +5037,45 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F25" t="s">
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H25" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B26"/>
       <c r="C26" t="n">
         <v>0.285591607856999</v>
       </c>
       <c r="F26" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26"/>
       <c r="H26" t="n">
-        <v>0.04</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B27"/>
       <c r="C27"/>
       <c r="F27" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G27"/>
       <c r="H27"/>
@@ -5099,20 +5099,20 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" t="s">
         <v>16</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>17</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>15</v>
       </c>
-      <c r="H32" t="s">
-        <v>8</v>
-      </c>
       <c r="K32" t="s">
         <v>1</v>
       </c>
@@ -5123,19 +5123,19 @@
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O32" t="s">
+        <v>6</v>
+      </c>
+      <c r="P32" t="s">
         <v>16</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>17</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="R32" t="s">
         <v>15</v>
-      </c>
-      <c r="R32" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -5147,19 +5147,19 @@
         <v>-0.54946856605131</v>
       </c>
       <c r="D33" t="n">
-        <v>0.346647839632839</v>
+        <v>-0.50581974809579</v>
       </c>
       <c r="E33" t="n">
-        <v>0.371187613644579</v>
+        <v>-0.350368233948335</v>
       </c>
       <c r="F33" t="n">
-        <v>0.16518777999784</v>
+        <v>-0.187173654482349</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.47297694482543</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.750570242873714</v>
+        <v>0.488370197001</v>
       </c>
       <c r="K33" t="s">
         <v>2</v>
@@ -5175,10 +5175,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0.026</v>
+        <v>0.023</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -5191,19 +5191,19 @@
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34" t="n">
-        <v>-0.350368233948335</v>
+        <v>0.750570242873714</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.187173654482349</v>
+        <v>0.346647839632839</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>0.371187613644579</v>
       </c>
       <c r="G34" t="n">
-        <v>0.488370197001</v>
+        <v>0.16518777999784</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.50581974809579</v>
+        <v>-0.47297694482543</v>
       </c>
       <c r="K34" t="s">
         <v>3</v>
@@ -5214,13 +5214,13 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -5228,37 +5228,37 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>0.466138449706533</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.214926451008995</v>
+        <v>0.416570726263764</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.315508770251712</v>
+        <v>0.208440652733415</v>
       </c>
       <c r="H35" t="n">
-        <v>0.466138449706533</v>
+        <v>-0.563824504271191</v>
       </c>
       <c r="K35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L35"/>
       <c r="M35"/>
       <c r="N35"/>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -5266,33 +5266,33 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B36"/>
       <c r="C36"/>
       <c r="D36"/>
       <c r="E36"/>
       <c r="F36" t="n">
-        <v>0.687410820506433</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.172863716489681</v>
+        <v>-0.214926451008995</v>
       </c>
       <c r="H36" t="n">
-        <v>0.416570726263764</v>
+        <v>-0.315508770251712</v>
       </c>
       <c r="K36" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="L36"/>
       <c r="M36"/>
       <c r="N36"/>
       <c r="O36"/>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.014</v>
+        <v>0.004</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -5300,7 +5300,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37"/>
       <c r="C37"/>
@@ -5308,13 +5308,13 @@
       <c r="E37"/>
       <c r="F37"/>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.687410820506433</v>
       </c>
       <c r="H37" t="n">
-        <v>0.208440652733415</v>
+        <v>-0.172863716489681</v>
       </c>
       <c r="K37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L37"/>
       <c r="M37"/>
@@ -5322,15 +5322,15 @@
       <c r="O37"/>
       <c r="P37"/>
       <c r="Q37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.00700000000000001</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B38"/>
       <c r="C38"/>
@@ -5339,10 +5339,10 @@
       <c r="F38"/>
       <c r="G38"/>
       <c r="H38" t="n">
-        <v>-0.563824504271191</v>
+        <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L38"/>
       <c r="M38"/>
@@ -5351,12 +5351,12 @@
       <c r="P38"/>
       <c r="Q38"/>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B39"/>
       <c r="C39"/>
@@ -5366,7 +5366,7 @@
       <c r="G39"/>
       <c r="H39"/>
       <c r="K39" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="L39"/>
       <c r="M39"/>
@@ -5403,52 +5403,52 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
       <c r="G2" t="s">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
         <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3"/>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.469831002486761</v>
       </c>
       <c r="D3" t="n">
-        <v>0.469831002486761</v>
+        <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3"/>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="J3" t="n">
-        <v>0.002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B4"/>
       <c r="C4"/>
@@ -5456,23 +5456,23 @@
         <v>0.631421226581666</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5"/>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -5491,7 +5491,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -5500,7 +5500,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H10" t="s">
         <v>16</v>
@@ -5508,14 +5508,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11"/>
       <c r="C11" t="n">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G11"/>
       <c r="H11" t="n">
@@ -5553,19 +5553,19 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
         <v>16</v>
       </c>
-      <c r="F17" t="s">
-        <v>7</v>
-      </c>
       <c r="G17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" t="s">
         <v>15</v>
-      </c>
-      <c r="H17" t="s">
-        <v>8</v>
       </c>
       <c r="I17" t="s">
         <v>9</v>
@@ -5580,19 +5580,19 @@
         <v>3</v>
       </c>
       <c r="O17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P17" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q17" t="s">
         <v>16</v>
       </c>
-      <c r="Q17" t="s">
-        <v>7</v>
-      </c>
       <c r="R17" t="s">
+        <v>8</v>
+      </c>
+      <c r="S17" t="s">
         <v>15</v>
-      </c>
-      <c r="S17" t="s">
-        <v>8</v>
       </c>
       <c r="T17" t="s">
         <v>9</v>
@@ -5613,16 +5613,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.352810135260364</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.35728663364321</v>
+        <v>0.330460570801272</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.389261878285244</v>
+        <v>0</v>
       </c>
       <c r="L18" t="s">
         <v>2</v>
@@ -5638,16 +5638,16 @@
         <v>1</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.027</v>
+        <v>1</v>
       </c>
       <c r="R18" t="n">
-        <v>0.013</v>
+        <v>0.02</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
       </c>
       <c r="T18" t="n">
-        <v>0.016</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -5663,16 +5663,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.330460570801272</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-0.352810135260364</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>-0.35728663364321</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>-0.389261878285244</v>
       </c>
       <c r="L19" t="s">
         <v>3</v>
@@ -5686,27 +5686,27 @@
         <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.031</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
-        <v>1</v>
+        <v>0.021</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="T19" t="n">
-        <v>1</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20" t="n">
-        <v>0.819885511481007</v>
+        <v>0.328615045591495</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -5715,19 +5715,19 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.328615045591495</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M20"/>
       <c r="N20"/>
       <c r="O20"/>
       <c r="P20" t="n">
-        <v>0.00900000000000001</v>
+        <v>0.022</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
@@ -5736,7 +5736,7 @@
         <v>1</v>
       </c>
       <c r="S20" t="n">
-        <v>0.026</v>
+        <v>1</v>
       </c>
       <c r="T20" t="n">
         <v>1</v>
@@ -5744,14 +5744,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.819885511481007</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -5763,14 +5763,14 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M21"/>
       <c r="N21"/>
       <c r="O21"/>
       <c r="P21"/>
       <c r="Q21" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="R21" t="n">
         <v>1</v>
@@ -5784,7 +5784,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B22"/>
       <c r="C22"/>
@@ -5801,7 +5801,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="M22"/>
       <c r="N22"/>
@@ -5820,7 +5820,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B23"/>
       <c r="C23"/>
@@ -5835,7 +5835,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M23"/>
       <c r="N23"/>
@@ -5852,7 +5852,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B24"/>
       <c r="C24"/>
@@ -5865,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M24"/>
       <c r="N24"/>
@@ -5935,10 +5935,10 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H2" t="s">
         <v>1</v>
@@ -5950,10 +5950,10 @@
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -5965,10 +5965,10 @@
         <v>0.253098575420775</v>
       </c>
       <c r="D3" t="n">
-        <v>0.195509938502825</v>
+        <v>0.331099485239678</v>
       </c>
       <c r="E3" t="n">
-        <v>0.349202993286942</v>
+        <v>0</v>
       </c>
       <c r="H3" t="s">
         <v>2</v>
@@ -5981,7 +5981,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -5991,10 +5991,10 @@
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.349202993286942</v>
       </c>
       <c r="E4" t="n">
-        <v>0.331099485239678</v>
+        <v>0.195509938502825</v>
       </c>
       <c r="H4" t="s">
         <v>3</v>
@@ -6002,7 +6002,7 @@
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -6010,7 +6010,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
@@ -6019,7 +6019,7 @@
         <v>0.218433221339541</v>
       </c>
       <c r="H5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
@@ -6030,14 +6030,14 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6"/>
       <c r="H6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -6057,31 +6057,31 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12"/>
       <c r="C12" t="n">
         <v>-3.51486218933546</v>
       </c>
       <c r="F12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12"/>
       <c r="H12" t="n">
@@ -6090,12 +6090,12 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13"/>
       <c r="C13"/>
       <c r="F13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -6119,10 +6119,10 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H18" t="s">
         <v>1</v>
@@ -6134,10 +6134,10 @@
         <v>3</v>
       </c>
       <c r="K18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -6149,10 +6149,10 @@
         <v>-0.380910108396395</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>-0.309186268184407</v>
       </c>
       <c r="E19" t="n">
-        <v>0.580675358036151</v>
+        <v>0</v>
       </c>
       <c r="H19" t="s">
         <v>2</v>
@@ -6162,10 +6162,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -6175,10 +6175,10 @@
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.580675358036151</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.309186268184407</v>
+        <v>0</v>
       </c>
       <c r="H20" t="s">
         <v>3</v>
@@ -6186,15 +6186,15 @@
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21"/>
       <c r="C21"/>
@@ -6203,7 +6203,7 @@
         <v>0.858002178433262</v>
       </c>
       <c r="H21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I21"/>
       <c r="J21"/>
@@ -6214,14 +6214,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
       <c r="H22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I22"/>
       <c r="J22"/>
@@ -6247,17 +6247,17 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" t="s">
         <v>16</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>17</v>
       </c>
-      <c r="G27" t="s">
-        <v>8</v>
-      </c>
       <c r="J27" t="s">
         <v>1</v>
       </c>
@@ -6268,16 +6268,16 @@
         <v>3</v>
       </c>
       <c r="M27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
+        <v>6</v>
+      </c>
+      <c r="O27" t="s">
         <v>16</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>17</v>
-      </c>
-      <c r="P27" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -6295,10 +6295,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>-0.215413880172448</v>
       </c>
       <c r="G28" t="n">
-        <v>0.367783927229346</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
         <v>2</v>
@@ -6314,10 +6314,10 @@
         <v>1</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>0.033</v>
       </c>
       <c r="P28" t="n">
-        <v>0.00600000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -6327,10 +6327,10 @@
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>0.367783927229346</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.215413880172448</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -6344,10 +6344,10 @@
       <c r="K29"/>
       <c r="L29"/>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>0.00600000000000001</v>
       </c>
       <c r="N29" t="n">
-        <v>0.029</v>
+        <v>1</v>
       </c>
       <c r="O29" t="n">
         <v>1</v>
@@ -6358,59 +6358,59 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.287251795759565</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.287251795759565</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K30"/>
       <c r="L30"/>
       <c r="M30"/>
       <c r="N30" t="n">
-        <v>1</v>
+        <v>0.003</v>
       </c>
       <c r="O30" t="n">
         <v>1</v>
       </c>
       <c r="P30" t="n">
-        <v>0.005</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31" t="n">
-        <v>0.43091865750531</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31"/>
       <c r="N31"/>
       <c r="O31" t="n">
-        <v>0.00600000000000001</v>
+        <v>1</v>
       </c>
       <c r="P31" t="n">
         <v>1</v>
@@ -6418,7 +6418,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B32"/>
       <c r="C32"/>
@@ -6426,10 +6426,10 @@
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.43091865750531</v>
       </c>
       <c r="J32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K32"/>
       <c r="L32"/>
@@ -6437,12 +6437,12 @@
       <c r="N32"/>
       <c r="O32"/>
       <c r="P32" t="n">
-        <v>1</v>
+        <v>0.00600000000000001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B33"/>
       <c r="C33"/>
@@ -6451,7 +6451,7 @@
       <c r="F33"/>
       <c r="G33"/>
       <c r="J33" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="K33"/>
       <c r="L33"/>
@@ -6499,22 +6499,22 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
       <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
         <v>15</v>
-      </c>
-      <c r="K2" t="s">
-        <v>8</v>
       </c>
       <c r="N2" t="s">
         <v>1</v>
@@ -6532,22 +6532,22 @@
         <v>5</v>
       </c>
       <c r="S2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" t="s">
         <v>16</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>18</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>19</v>
       </c>
-      <c r="V2" t="s">
-        <v>7</v>
-      </c>
       <c r="W2" t="s">
+        <v>8</v>
+      </c>
+      <c r="X2" t="s">
         <v>15</v>
-      </c>
-      <c r="X2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -6559,59 +6559,59 @@
         <v>0.0712816298233372</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.083168315112669</v>
       </c>
       <c r="E3" t="n">
-        <v>0.782927805695061</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0723789554636319</v>
+        <v>0.015288324005342</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0537930025925016</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.0765599766713708</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.852339489072251</v>
+        <v>0</v>
       </c>
       <c r="N3" t="s">
         <v>2</v>
       </c>
       <c r="O3"/>
       <c r="P3" t="n">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>0.004</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>0.015</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="W3" t="n">
         <v>1</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -6621,28 +6621,28 @@
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.852339489072251</v>
       </c>
       <c r="E4" t="n">
-        <v>0.015288324005342</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.782927805695061</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.0723789554636319</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0765599766713708</v>
+        <v>0.0147479264655643</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.0537930025925016</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.083168315112669</v>
+        <v>0</v>
       </c>
       <c r="N4" t="s">
         <v>3</v>
@@ -6650,28 +6650,28 @@
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="U4" t="n">
-        <v>0.001</v>
+        <v>0.048</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>0.007</v>
       </c>
       <c r="W4" t="n">
         <v>1</v>
       </c>
       <c r="X4" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -6682,25 +6682,25 @@
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5" t="n">
-        <v>0.00330845692512291</v>
+        <v>0.0261505425434019</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.758984510332732</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.107115466035324</v>
       </c>
       <c r="H5" t="n">
-        <v>0.074935118725782</v>
+        <v>0.0193592654904779</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0159151091972281</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0261505425434019</v>
+        <v>0.596358088355732</v>
       </c>
       <c r="N5" t="s">
         <v>4</v>
@@ -6709,25 +6709,25 @@
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="V5" t="n">
         <v>1</v>
       </c>
       <c r="W5" t="n">
-        <v>0.008</v>
+        <v>1</v>
       </c>
       <c r="X5" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -6739,22 +6739,22 @@
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6" t="n">
-        <v>0.0622979910941671</v>
+        <v>0.00330845692512291</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0166411177906693</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.074935118725782</v>
       </c>
       <c r="J6" t="n">
-        <v>0.165180811840397</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.758984510332732</v>
+        <v>0.0159151091972281</v>
       </c>
       <c r="N6" t="s">
         <v>5</v>
@@ -6764,27 +6764,27 @@
       <c r="Q6"/>
       <c r="R6"/>
       <c r="S6" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>1</v>
       </c>
       <c r="U6" t="n">
-        <v>0.015</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0.011</v>
+        <v>1</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
@@ -6792,22 +6792,22 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.0622979910941671</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.0166411177906693</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0109246484846678</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.107115466035324</v>
+        <v>0.165180811840397</v>
       </c>
       <c r="N7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="O7"/>
       <c r="P7"/>
@@ -6815,24 +6815,24 @@
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>0.005</v>
       </c>
       <c r="U7" t="n">
         <v>1</v>
       </c>
       <c r="V7" t="n">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="W7" t="n">
-        <v>0.008</v>
+        <v>1</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8"/>
       <c r="C8"/>
@@ -6850,10 +6850,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0193592654904779</v>
+        <v>0.0109246484846678</v>
       </c>
       <c r="N8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O8"/>
       <c r="P8"/>
@@ -6871,12 +6871,12 @@
         <v>1</v>
       </c>
       <c r="X8" t="n">
-        <v>0.044</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9"/>
       <c r="C9"/>
@@ -6895,7 +6895,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O9"/>
       <c r="P9"/>
@@ -6916,7 +6916,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B10"/>
       <c r="C10"/>
@@ -6927,13 +6927,13 @@
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10" t="n">
-        <v>0.0596391008083685</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="O10"/>
       <c r="P10"/>
@@ -6944,7 +6944,7 @@
       <c r="U10"/>
       <c r="V10"/>
       <c r="W10" t="n">
-        <v>0.04</v>
+        <v>1</v>
       </c>
       <c r="X10" t="n">
         <v>1</v>
@@ -6952,7 +6952,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
@@ -6964,10 +6964,10 @@
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11" t="n">
-        <v>0.596358088355732</v>
+        <v>0.0596391008083685</v>
       </c>
       <c r="N11" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="O11"/>
       <c r="P11"/>
@@ -6979,12 +6979,12 @@
       <c r="V11"/>
       <c r="W11"/>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B12"/>
       <c r="C12"/>
@@ -6997,7 +6997,7 @@
       <c r="J12"/>
       <c r="K12"/>
       <c r="N12" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="O12"/>
       <c r="P12"/>
@@ -7023,7 +7023,7 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -7032,22 +7032,22 @@
         <v>5</v>
       </c>
       <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
         <v>18</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>19</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>15</v>
       </c>
-      <c r="H17" t="s">
-        <v>8</v>
-      </c>
       <c r="K17" t="s">
         <v>1</v>
       </c>
       <c r="L17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M17" t="s">
         <v>4</v>
@@ -7056,21 +7056,21 @@
         <v>5</v>
       </c>
       <c r="O17" t="s">
+        <v>6</v>
+      </c>
+      <c r="P17" t="s">
         <v>18</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>15</v>
-      </c>
-      <c r="R17" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18"/>
       <c r="C18" t="n">
@@ -7080,19 +7080,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>3.48693332510986</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>1.84714795623621</v>
       </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18"/>
       <c r="M18" t="n">
@@ -7102,13 +7102,13 @@
         <v>1</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
@@ -7127,13 +7127,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>4.05671556221175</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>-4.915902166297</v>
       </c>
       <c r="K19" t="s">
         <v>4</v>
@@ -7147,13 +7147,13 @@
         <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
       </c>
       <c r="R19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -7170,7 +7170,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.33620989376457</v>
+        <v>4.05671556221175</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -7196,7 +7196,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B21"/>
       <c r="C21"/>
@@ -7209,10 +7209,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>-2.33620989376457</v>
       </c>
       <c r="K21" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L21"/>
       <c r="M21"/>
@@ -7225,12 +7225,12 @@
         <v>1</v>
       </c>
       <c r="R21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22"/>
       <c r="C22"/>
@@ -7244,7 +7244,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L22"/>
       <c r="M22"/>
@@ -7260,7 +7260,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B23"/>
       <c r="C23"/>
@@ -7269,10 +7269,10 @@
       <c r="F23"/>
       <c r="G23"/>
       <c r="H23" t="n">
-        <v>-4.91590216629701</v>
+        <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L23"/>
       <c r="M23"/>
@@ -7281,12 +7281,12 @@
       <c r="P23"/>
       <c r="Q23"/>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B24"/>
       <c r="C24"/>
@@ -7296,7 +7296,7 @@
       <c r="G24"/>
       <c r="H24"/>
       <c r="K24" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="L24"/>
       <c r="M24"/>
@@ -7331,19 +7331,19 @@
         <v>5</v>
       </c>
       <c r="F29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" t="s">
         <v>16</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>18</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>19</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>15</v>
-      </c>
-      <c r="J29" t="s">
-        <v>8</v>
       </c>
       <c r="M29" t="s">
         <v>1</v>
@@ -7361,19 +7361,19 @@
         <v>5</v>
       </c>
       <c r="R29" t="s">
+        <v>6</v>
+      </c>
+      <c r="S29" t="s">
         <v>16</v>
       </c>
-      <c r="S29" t="s">
+      <c r="T29" t="s">
         <v>18</v>
       </c>
-      <c r="T29" t="s">
+      <c r="U29" t="s">
         <v>19</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>15</v>
-      </c>
-      <c r="V29" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -7388,7 +7388,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.527442474325815</v>
+        <v>0.177160177936926</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -7397,26 +7397,26 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>0.215736667436301</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>0.194452029418745</v>
       </c>
       <c r="J30" t="n">
-        <v>0.351127916957057</v>
+        <v>0</v>
       </c>
       <c r="M30" t="s">
         <v>2</v>
       </c>
       <c r="N30"/>
       <c r="O30" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="P30" t="n">
         <v>1</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>0.018</v>
       </c>
       <c r="R30" t="n">
         <v>1</v>
@@ -7425,13 +7425,13 @@
         <v>1</v>
       </c>
       <c r="T30" t="n">
-        <v>1</v>
+        <v>0.013</v>
       </c>
       <c r="U30" t="n">
-        <v>1</v>
+        <v>0.00800000000000001</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -7441,19 +7441,19 @@
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31" t="n">
-        <v>0.177160177936926</v>
+        <v>0.351127916957057</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.527442474325815</v>
       </c>
       <c r="G31" t="n">
-        <v>0.215736667436301</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.194452029418745</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -7467,19 +7467,19 @@
       <c r="N31"/>
       <c r="O31"/>
       <c r="P31" t="n">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
       </c>
       <c r="R31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0.026</v>
+        <v>1</v>
       </c>
       <c r="T31" t="n">
-        <v>0.003</v>
+        <v>1</v>
       </c>
       <c r="U31" t="n">
         <v>1</v>
@@ -7499,19 +7499,19 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>0.571130866267409</v>
       </c>
       <c r="G32" t="n">
-        <v>0.178715830610555</v>
+        <v>0.186576103090993</v>
       </c>
       <c r="H32" t="n">
-        <v>0.366322143164943</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>-0.791939909226795</v>
       </c>
       <c r="M32" t="s">
         <v>4</v>
@@ -7523,19 +7523,19 @@
         <v>1</v>
       </c>
       <c r="R32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0.019</v>
+        <v>0.016</v>
       </c>
       <c r="T32" t="n">
-        <v>0.003</v>
+        <v>1</v>
       </c>
       <c r="U32" t="n">
         <v>1</v>
       </c>
       <c r="V32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -7553,13 +7553,13 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>0.178715830610555</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.325583622373633</v>
+        <v>0.366322143164943</v>
       </c>
       <c r="J33" t="n">
-        <v>0.571130866267409</v>
+        <v>0</v>
       </c>
       <c r="M33" t="s">
         <v>5</v>
@@ -7575,18 +7575,18 @@
         <v>1</v>
       </c>
       <c r="T33" t="n">
-        <v>1</v>
+        <v>0.023</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B34"/>
       <c r="C34"/>
@@ -7603,10 +7603,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.186576103090993</v>
+        <v>-0.325583622373633</v>
       </c>
       <c r="M34" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="N34"/>
       <c r="O34"/>
@@ -7623,12 +7623,12 @@
         <v>1</v>
       </c>
       <c r="V34" t="n">
-        <v>0.015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B35"/>
       <c r="C35"/>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N35"/>
       <c r="O35"/>
@@ -7666,7 +7666,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B36"/>
       <c r="C36"/>
@@ -7682,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N36"/>
       <c r="O36"/>
@@ -7700,7 +7700,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B37"/>
       <c r="C37"/>
@@ -7711,10 +7711,10 @@
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37" t="n">
-        <v>-0.791939909226795</v>
+        <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N37"/>
       <c r="O37"/>
@@ -7725,12 +7725,12 @@
       <c r="T37"/>
       <c r="U37"/>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B38"/>
       <c r="C38"/>
@@ -7742,7 +7742,7 @@
       <c r="I38"/>
       <c r="J38"/>
       <c r="M38" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N38"/>
       <c r="O38"/>
@@ -7793,13 +7793,13 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
       </c>
       <c r="K2" t="s">
         <v>1</v>
@@ -7817,13 +7817,13 @@
         <v>5</v>
       </c>
       <c r="P2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>19</v>
-      </c>
-      <c r="R2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -7838,16 +7838,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1116379659385</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.432516272522897</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.363519154488681</v>
+        <v>0.276641486393431</v>
       </c>
       <c r="K3" t="s">
         <v>2</v>
@@ -7860,16 +7860,16 @@
         <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>0.002</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -7879,19 +7879,19 @@
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.363519154488681</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.1116379659385</v>
       </c>
       <c r="G4" t="n">
-        <v>0.276641486393431</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.432516272522897</v>
       </c>
       <c r="K4" t="s">
         <v>3</v>
@@ -7899,19 +7899,19 @@
       <c r="L4"/>
       <c r="M4"/>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0.002</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -7922,16 +7922,16 @@
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.170344423161602</v>
       </c>
       <c r="F5" t="n">
-        <v>0.114710995208053</v>
+        <v>0.113431705913479</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.139363035427265</v>
       </c>
       <c r="H5" t="n">
-        <v>0.170344423161602</v>
+        <v>0</v>
       </c>
       <c r="K5" t="s">
         <v>4</v>
@@ -7940,16 +7940,16 @@
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0.002</v>
       </c>
       <c r="P5" t="n">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>0.018</v>
       </c>
       <c r="R5" t="n">
-        <v>0.002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -7964,10 +7964,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.114710995208053</v>
       </c>
       <c r="H6" t="n">
-        <v>0.113431705913479</v>
+        <v>0</v>
       </c>
       <c r="K6" t="s">
         <v>5</v>
@@ -7980,15 +7980,15 @@
         <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>0.022</v>
       </c>
       <c r="R6" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
@@ -7996,13 +7996,13 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>0.0321836290483222</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.139363035427265</v>
+        <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="L7"/>
       <c r="M7"/>
@@ -8010,15 +8010,15 @@
       <c r="O7"/>
       <c r="P7"/>
       <c r="Q7" t="n">
-        <v>0.003</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>0.014</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8"/>
       <c r="C8"/>
@@ -8027,10 +8027,10 @@
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.0321836290483222</v>
       </c>
       <c r="K8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L8"/>
       <c r="M8"/>
@@ -8039,12 +8039,12 @@
       <c r="P8"/>
       <c r="Q8"/>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B9"/>
       <c r="C9"/>
@@ -8054,7 +8054,7 @@
       <c r="G9"/>
       <c r="H9"/>
       <c r="K9" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="L9"/>
       <c r="M9"/>
@@ -8083,11 +8083,11 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
         <v>19</v>
       </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
       <c r="H14" t="s">
         <v>1</v>
       </c>
@@ -8098,10 +8098,10 @@
         <v>3</v>
       </c>
       <c r="K14" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" t="s">
         <v>19</v>
-      </c>
-      <c r="L14" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -8113,10 +8113,10 @@
         <v>-0.518175526761161</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.439459102884714</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.431563639857159</v>
+        <v>0</v>
       </c>
       <c r="H15" t="s">
         <v>2</v>
@@ -8126,10 +8126,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -8139,10 +8139,10 @@
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.431563639857159</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-0.439459102884714</v>
       </c>
       <c r="H16" t="s">
         <v>3</v>
@@ -8150,15 +8150,15 @@
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -8167,7 +8167,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="I17"/>
       <c r="J17"/>
@@ -8178,14 +8178,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
       <c r="H18" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="I18"/>
       <c r="J18"/>
@@ -8214,17 +8214,17 @@
         <v>4</v>
       </c>
       <c r="E23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" t="s">
         <v>21</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>20</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>19</v>
       </c>
-      <c r="H23" t="s">
-        <v>8</v>
-      </c>
       <c r="K23" t="s">
         <v>1</v>
       </c>
@@ -8238,16 +8238,16 @@
         <v>4</v>
       </c>
       <c r="O23" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" t="s">
         <v>21</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>20</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="R23" t="s">
         <v>19</v>
-      </c>
-      <c r="R23" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -8262,16 +8262,16 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.235500512712467</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.274820163163924</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.51521574441629</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.480240901036609</v>
+        <v>-0.273220549153602</v>
       </c>
       <c r="K24" t="s">
         <v>2</v>
@@ -8284,16 +8284,16 @@
         <v>1</v>
       </c>
       <c r="O24" t="n">
-        <v>0.025</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
-        <v>0.00900000000000001</v>
+        <v>1</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="25">
@@ -8303,19 +8303,19 @@
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.480240901036609</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>-0.235500512712467</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.273220549153602</v>
+        <v>-0.274820163163924</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.51521574441629</v>
       </c>
       <c r="K25" t="s">
         <v>3</v>
@@ -8323,19 +8323,19 @@
       <c r="L25"/>
       <c r="M25"/>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0.002</v>
       </c>
       <c r="O25" t="n">
         <v>1</v>
       </c>
       <c r="P25" t="n">
-        <v>1</v>
+        <v>0.029</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.003</v>
+        <v>0.018</v>
       </c>
       <c r="R25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -8346,16 +8346,16 @@
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>-0.312616552957839</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>-0.25175940985462</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-0.341962155461495</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.312616552957839</v>
+        <v>0.34404502317975</v>
       </c>
       <c r="K26" t="s">
         <v>4</v>
@@ -8364,21 +8364,21 @@
       <c r="M26"/>
       <c r="N26"/>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>0.017</v>
       </c>
       <c r="P26" t="n">
-        <v>1</v>
+        <v>0.00800000000000001</v>
       </c>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>0.00900000000000001</v>
       </c>
       <c r="R26" t="n">
-        <v>0.016</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B27"/>
       <c r="C27"/>
@@ -8391,10 +8391,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.25175940985462</v>
+        <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="L27"/>
       <c r="M27"/>
@@ -8407,12 +8407,12 @@
         <v>1</v>
       </c>
       <c r="R27" t="n">
-        <v>0.018</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B28"/>
       <c r="C28"/>
@@ -8423,10 +8423,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.341962155461495</v>
+        <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L28"/>
       <c r="M28"/>
@@ -8437,12 +8437,12 @@
         <v>1</v>
       </c>
       <c r="R28" t="n">
-        <v>0.011</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B29"/>
       <c r="C29"/>
@@ -8451,10 +8451,10 @@
       <c r="F29"/>
       <c r="G29"/>
       <c r="H29" t="n">
-        <v>0.34404502317975</v>
+        <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L29"/>
       <c r="M29"/>
@@ -8463,12 +8463,12 @@
       <c r="P29"/>
       <c r="Q29"/>
       <c r="R29" t="n">
-        <v>0.002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B30"/>
       <c r="C30"/>
@@ -8478,7 +8478,7 @@
       <c r="G30"/>
       <c r="H30"/>
       <c r="K30" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="L30"/>
       <c r="M30"/>
@@ -8521,7 +8521,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -8539,7 +8539,7 @@
         <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M2" t="s">
         <v>9</v>
@@ -8557,10 +8557,10 @@
         <v>0.182665069498372</v>
       </c>
       <c r="D3" t="n">
-        <v>0.162422025104263</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.173377238895882</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -8573,10 +8573,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>0.005</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
         <v>1</v>
@@ -8589,10 +8589,10 @@
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.162422025104263</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.173377238895882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -8603,10 +8603,10 @@
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0.00600000000000001</v>
       </c>
       <c r="N4" t="n">
         <v>1</v>
@@ -8614,7 +8614,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
@@ -8626,7 +8626,7 @@
         <v>0.267248986587632</v>
       </c>
       <c r="I5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
@@ -8721,7 +8721,7 @@
         <v>3.12791644004692</v>
       </c>
       <c r="D13" t="n">
-        <v>-2.38004660846324</v>
+        <v>-1.99714887167443</v>
       </c>
       <c r="G13" t="s">
         <v>2</v>
@@ -8741,7 +8741,7 @@
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14" t="n">
-        <v>-1.99714887167443</v>
+        <v>-2.38004660846324</v>
       </c>
       <c r="G14" t="s">
         <v>3</v>
@@ -8779,10 +8779,10 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
@@ -8791,10 +8791,10 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J20" t="s">
         <v>22</v>
@@ -8802,7 +8802,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21"/>
       <c r="C21" t="n">
@@ -8812,7 +8812,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H21"/>
       <c r="I21" t="n">
@@ -8824,7 +8824,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B22"/>
       <c r="C22"/>
@@ -8832,12 +8832,12 @@
         <v>0.828265554198909</v>
       </c>
       <c r="G22" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H22"/>
       <c r="I22"/>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="23">
@@ -8873,10 +8873,10 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -8897,10 +8897,10 @@
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P28" t="s">
         <v>9</v>
@@ -8921,41 +8921,41 @@
         <v>0.212089775140945</v>
       </c>
       <c r="D29" t="n">
-        <v>0.194936755152623</v>
+        <v>-0.221818021096217</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.241646119159456</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.244317956403195</v>
+        <v>-0.22672637386465</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.286541774453705</v>
+        <v>-0.211173507818809</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>-0.178452284398689</v>
       </c>
       <c r="K29" t="s">
         <v>2</v>
       </c>
       <c r="L29"/>
       <c r="M29" t="n">
-        <v>0.011</v>
+        <v>0.014</v>
       </c>
       <c r="N29" t="n">
         <v>0.003</v>
       </c>
       <c r="O29" t="n">
-        <v>0.003</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="R29" t="n">
-        <v>1</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="30">
@@ -8965,19 +8965,19 @@
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>-0.241646119159456</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.221818021096217</v>
+        <v>0.194936755152623</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.22672637386465</v>
+        <v>-0.244317956403195</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.211173507818809</v>
+        <v>-0.286541774453705</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.178452284398689</v>
+        <v>0</v>
       </c>
       <c r="K30" t="s">
         <v>3</v>
@@ -8985,24 +8985,24 @@
       <c r="L30"/>
       <c r="M30"/>
       <c r="N30" t="n">
-        <v>1</v>
+        <v>0.00600000000000001</v>
       </c>
       <c r="O30" t="n">
-        <v>0.00800000000000001</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>0.00900000000000001</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="R30" t="n">
-        <v>0.026</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -9014,13 +9014,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.414285996061729</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L31"/>
       <c r="M31"/>
@@ -9032,7 +9032,7 @@
         <v>1</v>
       </c>
       <c r="Q31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>1</v>
@@ -9040,7 +9040,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B32"/>
       <c r="C32"/>
@@ -9050,13 +9050,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.414285996061729</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L32"/>
       <c r="M32"/>
@@ -9066,7 +9066,7 @@
         <v>1</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" t="n">
         <v>1</v>
@@ -9180,16 +9180,16 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
         <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
       </c>
       <c r="I2" t="s">
         <v>1</v>
@@ -9198,16 +9198,16 @@
         <v>24</v>
       </c>
       <c r="K2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" t="s">
-        <v>7</v>
-      </c>
       <c r="M2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" t="s">
         <v>15</v>
-      </c>
-      <c r="N2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -9216,13 +9216,13 @@
       </c>
       <c r="B3"/>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.0512724041710014</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.0447695063528008</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -9232,13 +9232,13 @@
       </c>
       <c r="J3"/>
       <c r="K3" t="n">
-        <v>0.031</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0.011</v>
+        <v>0.03</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0.016</v>
       </c>
       <c r="N3" t="n">
         <v>1</v>
@@ -9246,7 +9246,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B4"/>
       <c r="C4"/>
@@ -9257,10 +9257,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.226501565053143</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
@@ -9271,12 +9271,12 @@
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
@@ -9288,7 +9288,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
@@ -9302,29 +9302,29 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6" t="n">
-        <v>0.226501565053143</v>
+        <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6" t="n">
-        <v>0.00700000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
@@ -9332,7 +9332,7 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="I7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
@@ -9381,7 +9381,7 @@
       </c>
       <c r="G13"/>
       <c r="H13" t="n">
-        <v>0.00600000000000001</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="14">
@@ -9429,13 +9429,13 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -9453,13 +9453,13 @@
         <v>3</v>
       </c>
       <c r="N2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" t="s">
         <v>19</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>15</v>
-      </c>
-      <c r="P2" t="s">
-        <v>8</v>
       </c>
       <c r="Q2" t="s">
         <v>9</v>
@@ -9477,19 +9477,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.243556707536314</v>
       </c>
       <c r="E3" t="n">
-        <v>0.181945332163942</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.130643077244384</v>
+        <v>0.102904818463383</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.408705882581988</v>
       </c>
       <c r="K3" t="s">
         <v>2</v>
@@ -9499,19 +9499,19 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>0.003</v>
+        <v>0.03</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -9521,19 +9521,19 @@
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.130643077244384</v>
       </c>
       <c r="E4" t="n">
-        <v>0.102904818463383</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.243556707536314</v>
+        <v>0.181945332163942</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.408705882581988</v>
+        <v>0</v>
       </c>
       <c r="K4" t="s">
         <v>3</v>
@@ -9541,10 +9541,10 @@
       <c r="L4"/>
       <c r="M4"/>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>0.003</v>
       </c>
       <c r="O4" t="n">
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -9553,66 +9553,66 @@
         <v>1</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5" t="n">
-        <v>0.0848714362995656</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.168734409858016</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.451920034764376</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.445347295457102</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6" t="n">
-        <v>0.168734409858016</v>
+        <v>0.0848714362995656</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2254576166955</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0891610190824896</v>
+        <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L6"/>
       <c r="M6"/>
@@ -9622,15 +9622,15 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.003</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>0.003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
@@ -9638,13 +9638,13 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>0.451920034764376</v>
+        <v>0.2254576166955</v>
       </c>
       <c r="H7" t="n">
-        <v>0.445347295457102</v>
+        <v>0.0891610190824896</v>
       </c>
       <c r="K7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="L7"/>
       <c r="M7"/>
@@ -9652,10 +9652,10 @@
       <c r="O7"/>
       <c r="P7"/>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="8">
@@ -9725,13 +9725,13 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
         <v>19</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>15</v>
-      </c>
-      <c r="F14" t="s">
-        <v>8</v>
       </c>
       <c r="G14" t="s">
         <v>9</v>
@@ -9749,13 +9749,13 @@
         <v>3</v>
       </c>
       <c r="N14" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" t="s">
         <v>19</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>15</v>
-      </c>
-      <c r="P14" t="s">
-        <v>8</v>
       </c>
       <c r="Q14" t="s">
         <v>9</v>
@@ -9776,7 +9776,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -9785,7 +9785,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>-1.38755857100771</v>
       </c>
       <c r="K15" t="s">
         <v>2</v>
@@ -9798,7 +9798,7 @@
         <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -9807,7 +9807,7 @@
         <v>1</v>
       </c>
       <c r="R15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -9823,13 +9823,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.38755857100771</v>
+        <v>0</v>
       </c>
       <c r="K16" t="s">
         <v>3</v>
@@ -9843,72 +9843,72 @@
         <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-5.7980457196433</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-2.58622400709995</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>3.53316630801374</v>
       </c>
       <c r="K17" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="L17"/>
       <c r="M17"/>
       <c r="N17"/>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18" t="n">
-        <v>-5.7980457196433</v>
+        <v>10</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>-2.50579798892179</v>
+        <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L18"/>
       <c r="M18"/>
@@ -9921,12 +9921,12 @@
         <v>1</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B19"/>
       <c r="C19"/>
@@ -9934,13 +9934,13 @@
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19" t="n">
-        <v>-2.58622400709995</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>3.53316630801374</v>
+        <v>-2.50579798892179</v>
       </c>
       <c r="K19" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="L19"/>
       <c r="M19"/>
@@ -9948,7 +9948,7 @@
       <c r="O19"/>
       <c r="P19"/>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -10015,10 +10015,10 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
@@ -10030,10 +10030,10 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K26" t="s">
         <v>9</v>
@@ -10044,7 +10044,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27"/>
       <c r="C27" t="n">
@@ -10057,14 +10057,14 @@
         <v>0.761887409684489</v>
       </c>
       <c r="H27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27"/>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -10072,7 +10072,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B28"/>
       <c r="C28"/>
@@ -10083,7 +10083,7 @@
         <v>0.785507878163223</v>
       </c>
       <c r="H28" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I28"/>
       <c r="J28"/>
@@ -10149,16 +10149,16 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" t="s">
         <v>19</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>15</v>
-      </c>
-      <c r="G35" t="s">
-        <v>8</v>
       </c>
       <c r="H35" t="s">
         <v>9</v>
@@ -10176,16 +10176,16 @@
         <v>3</v>
       </c>
       <c r="O35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P35" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q35" t="s">
         <v>19</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="R35" t="s">
         <v>15</v>
-      </c>
-      <c r="R35" t="s">
-        <v>8</v>
       </c>
       <c r="S35" t="s">
         <v>9</v>
@@ -10203,22 +10203,22 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>0.243173773590375</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.238560453532876</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.172405315332</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>-0.168302642372977</v>
       </c>
       <c r="L36" t="s">
         <v>2</v>
@@ -10228,22 +10228,22 @@
         <v>1</v>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>1</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.011</v>
+        <v>1</v>
       </c>
       <c r="R36" t="n">
-        <v>0.00900000000000001</v>
+        <v>1</v>
       </c>
       <c r="S36" t="n">
         <v>1</v>
       </c>
       <c r="T36" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="37">
@@ -10253,7 +10253,7 @@
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>-0.172405315332</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -10262,13 +10262,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.243173773590375</v>
+        <v>0.238560453532876</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.168302642372977</v>
+        <v>0</v>
       </c>
       <c r="L37" t="s">
         <v>3</v>
@@ -10276,7 +10276,7 @@
       <c r="M37"/>
       <c r="N37"/>
       <c r="O37" t="n">
-        <v>1</v>
+        <v>0.013</v>
       </c>
       <c r="P37" t="n">
         <v>1</v>
@@ -10285,18 +10285,18 @@
         <v>1</v>
       </c>
       <c r="R37" t="n">
-        <v>0.001</v>
+        <v>0.012</v>
       </c>
       <c r="S37" t="n">
         <v>1</v>
       </c>
       <c r="T37" t="n">
-        <v>0.004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38"/>
       <c r="C38"/>
@@ -10308,16 +10308,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-0.348441030016465</v>
       </c>
       <c r="H38" t="n">
-        <v>0.153359845258405</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.450604735473328</v>
       </c>
       <c r="L38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M38"/>
       <c r="N38"/>
@@ -10329,50 +10329,50 @@
         <v>1</v>
       </c>
       <c r="R38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0.015</v>
+        <v>1</v>
       </c>
       <c r="T38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39"/>
       <c r="F39" t="n">
-        <v>0.421161796244916</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>0.153359845258405</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="M39"/>
       <c r="N39"/>
       <c r="O39"/>
       <c r="P39"/>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" t="n">
         <v>1</v>
       </c>
       <c r="S39" t="n">
-        <v>1</v>
+        <v>0.017</v>
       </c>
       <c r="T39" t="n">
         <v>1</v>
@@ -10380,7 +10380,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B40"/>
       <c r="C40"/>
@@ -10388,16 +10388,16 @@
       <c r="E40"/>
       <c r="F40"/>
       <c r="G40" t="n">
-        <v>-0.348441030016465</v>
+        <v>0.421161796244916</v>
       </c>
       <c r="H40" t="n">
-        <v>0.165877369983407</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.218656631974958</v>
+        <v>0</v>
       </c>
       <c r="L40" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M40"/>
       <c r="N40"/>
@@ -10408,15 +10408,15 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0.014</v>
+        <v>1</v>
       </c>
       <c r="T40" t="n">
-        <v>0.002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B41"/>
       <c r="C41"/>
@@ -10425,13 +10425,13 @@
       <c r="F41"/>
       <c r="G41"/>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>0.165877369983407</v>
       </c>
       <c r="I41" t="n">
-        <v>0.450604735473328</v>
+        <v>-0.218656631974958</v>
       </c>
       <c r="L41" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M41"/>
       <c r="N41"/>
@@ -10440,10 +10440,10 @@
       <c r="Q41"/>
       <c r="R41"/>
       <c r="S41" t="n">
-        <v>1</v>
+        <v>0.015</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="42">
@@ -10531,7 +10531,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -10549,7 +10549,7 @@
         <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M2" t="s">
         <v>9</v>
@@ -10567,7 +10567,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.119549689755508</v>
+        <v>0.21641779485144</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -10599,7 +10599,7 @@
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4" t="n">
-        <v>0.21641779485144</v>
+        <v>0.119549689755508</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -10613,7 +10613,7 @@
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
@@ -10624,7 +10624,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
@@ -10636,7 +10636,7 @@
         <v>0.223526656300852</v>
       </c>
       <c r="I5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
@@ -10701,13 +10701,13 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -10719,13 +10719,13 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" t="s">
         <v>15</v>
-      </c>
-      <c r="L12" t="s">
-        <v>8</v>
       </c>
       <c r="M12" t="s">
         <v>9</v>
@@ -10736,7 +10736,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13"/>
       <c r="C13" t="n">
@@ -10752,7 +10752,7 @@
         <v>-1.1795835021823</v>
       </c>
       <c r="I13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J13"/>
       <c r="K13" t="n">
@@ -10770,7 +10770,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -10784,7 +10784,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J14"/>
       <c r="K14"/>
@@ -10800,7 +10800,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B15"/>
       <c r="C15"/>
@@ -10812,7 +10812,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J15"/>
       <c r="K15"/>
@@ -10883,7 +10883,7 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E22" t="s">
         <v>26</v>
@@ -10904,7 +10904,7 @@
         <v>3</v>
       </c>
       <c r="M22" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
         <v>26</v>
@@ -10925,16 +10925,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.535261765289377</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.460754308902831</v>
+        <v>0.42008147795303</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.783402613014703</v>
       </c>
       <c r="J23" t="s">
         <v>2</v>
@@ -10944,7 +10944,7 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0.047</v>
       </c>
       <c r="N23" t="n">
         <v>1</v>
@@ -10953,7 +10953,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -10963,16 +10963,16 @@
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24" t="n">
-        <v>0.535261765289377</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.42008147795303</v>
+        <v>-0.460754308902831</v>
       </c>
       <c r="G24" t="n">
-        <v>0.783402613014703</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
         <v>3</v>
@@ -10980,7 +10980,7 @@
       <c r="K24"/>
       <c r="L24"/>
       <c r="M24" t="n">
-        <v>0.033</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
         <v>1</v>
@@ -10989,12 +10989,12 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
@@ -11009,16 +11009,16 @@
         <v>0.730860484262828</v>
       </c>
       <c r="J25" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K25"/>
       <c r="L25"/>
       <c r="M25"/>
       <c r="N25" t="n">
-        <v>0.019</v>
+        <v>0.013</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -11109,10 +11109,10 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
@@ -11124,10 +11124,10 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K33" t="s">
         <v>9</v>
@@ -11138,7 +11138,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34"/>
       <c r="C34" t="n">
@@ -11151,7 +11151,7 @@
         <v>-0.259770157795604</v>
       </c>
       <c r="H34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34"/>
       <c r="J34" t="n">
@@ -11161,12 +11161,12 @@
         <v>1</v>
       </c>
       <c r="L34" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B35"/>
       <c r="C35"/>
@@ -11177,12 +11177,12 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>1</v>
